--- a/results/cviceni_bez_cvicich.xlsx
+++ b/results/cviceni_bez_cvicich.xlsx
@@ -40,82 +40,82 @@
     <t>jmena</t>
   </si>
   <si>
+    <t>BPP</t>
+  </si>
+  <si>
+    <t>SZZC2</t>
+  </si>
+  <si>
+    <t>XBP</t>
+  </si>
+  <si>
+    <t>KZPS</t>
+  </si>
+  <si>
+    <t>EAPR2</t>
+  </si>
+  <si>
+    <t>SZZ60</t>
+  </si>
+  <si>
+    <t>SZZTD</t>
+  </si>
+  <si>
+    <t>SZZTP</t>
+  </si>
+  <si>
+    <t>KPRI</t>
+  </si>
+  <si>
+    <t>SZZB</t>
+  </si>
+  <si>
+    <t>KOPS</t>
+  </si>
+  <si>
+    <t>SZZC1</t>
+  </si>
+  <si>
+    <t>KPCA</t>
+  </si>
+  <si>
+    <t>KPYR</t>
+  </si>
+  <si>
+    <t>PRI</t>
+  </si>
+  <si>
     <t>ELAI</t>
   </si>
   <si>
+    <t>SZZAD</t>
+  </si>
+  <si>
+    <t>SZZVP</t>
+  </si>
+  <si>
+    <t>SZZA</t>
+  </si>
+  <si>
+    <t>EDSW</t>
+  </si>
+  <si>
+    <t>SZZIV</t>
+  </si>
+  <si>
+    <t>DPP</t>
+  </si>
+  <si>
+    <t>OPS</t>
+  </si>
+  <si>
     <t>VPOV</t>
   </si>
   <si>
-    <t>PRI</t>
-  </si>
-  <si>
-    <t>SZZA</t>
-  </si>
-  <si>
-    <t>KZPS</t>
-  </si>
-  <si>
-    <t>SZZVP</t>
-  </si>
-  <si>
-    <t>SZZC1</t>
-  </si>
-  <si>
-    <t>SZZTD</t>
-  </si>
-  <si>
-    <t>OPS</t>
-  </si>
-  <si>
     <t>SZZPP</t>
   </si>
   <si>
-    <t>BPP</t>
-  </si>
-  <si>
-    <t>SZZTP</t>
-  </si>
-  <si>
-    <t>SZZB</t>
-  </si>
-  <si>
-    <t>EAPR2</t>
-  </si>
-  <si>
-    <t>SZZC2</t>
-  </si>
-  <si>
-    <t>KPCA</t>
-  </si>
-  <si>
-    <t>SZZIV</t>
-  </si>
-  <si>
-    <t>KPYR</t>
-  </si>
-  <si>
-    <t>SZZ60</t>
-  </si>
-  <si>
-    <t>EDSW</t>
-  </si>
-  <si>
     <t>ZPS</t>
-  </si>
-  <si>
-    <t>SZZAD</t>
-  </si>
-  <si>
-    <t>XBP</t>
-  </si>
-  <si>
-    <t>KOPS</t>
-  </si>
-  <si>
-    <t>KPRI</t>
-  </si>
-  <si>
-    <t>DPP</t>
   </si>
   <si>
     <t>BP2O</t>
@@ -520,9 +520,7 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2">
-        <v>4472</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
@@ -538,9 +536,7 @@
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2">
-        <v>9114</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>35</v>
       </c>
@@ -556,9 +552,7 @@
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2">
-        <v>9642</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
         <v>35</v>
       </c>
@@ -574,7 +568,9 @@
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>1165</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>35</v>
       </c>
@@ -590,9 +586,7 @@
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2">
-        <v>1165</v>
-      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
@@ -657,7 +651,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="2">
-        <v>1165</v>
+        <v>9642</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>35</v>
@@ -690,7 +684,9 @@
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2">
+        <v>1165</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
@@ -722,7 +718,9 @@
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2">
+        <v>1165</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
@@ -754,7 +752,9 @@
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2">
+        <v>9642</v>
+      </c>
       <c r="C16" s="1" t="s">
         <v>35</v>
       </c>
@@ -771,7 +771,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="2">
-        <v>1165</v>
+        <v>4472</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>35</v>
@@ -884,7 +884,9 @@
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="2">
+        <v>1165</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>35</v>
       </c>
@@ -901,7 +903,7 @@
         <v>31</v>
       </c>
       <c r="B25" s="2">
-        <v>1165</v>
+        <v>9114</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>35</v>
@@ -918,9 +920,7 @@
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="2">
-        <v>9642</v>
-      </c>
+      <c r="B26" s="2"/>
       <c r="C26" s="1" t="s">
         <v>35</v>
       </c>

--- a/results/cviceni_bez_cvicich.xlsx
+++ b/results/cviceni_bez_cvicich.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="120">
   <si>
     <t>zkratka</t>
   </si>
@@ -28,100 +28,352 @@
     <t>rok</t>
   </si>
   <si>
+    <t>datum</t>
+  </si>
+  <si>
+    <t>hodinaSkutOd</t>
+  </si>
+  <si>
+    <t>hodinaSkutDo</t>
+  </si>
+  <si>
+    <t>katedra</t>
+  </si>
+  <si>
     <t>nazev</t>
   </si>
   <si>
-    <t>zkratka_right</t>
-  </si>
-  <si>
-    <t>prednasejiciUcitIdno</t>
+    <t>cvicici</t>
+  </si>
+  <si>
+    <t>cviciciUcitIdno</t>
   </si>
   <si>
     <t>jmena</t>
   </si>
   <si>
+    <t>0033</t>
+  </si>
+  <si>
+    <t>0121</t>
+  </si>
+  <si>
+    <t>0126</t>
+  </si>
+  <si>
+    <t>0127</t>
+  </si>
+  <si>
+    <t>0190</t>
+  </si>
+  <si>
+    <t>0191</t>
+  </si>
+  <si>
+    <t>0198</t>
+  </si>
+  <si>
+    <t>0199</t>
+  </si>
+  <si>
+    <t>BOP</t>
+  </si>
+  <si>
+    <t>BP2O</t>
+  </si>
+  <si>
     <t>BPP</t>
   </si>
   <si>
+    <t>DPP</t>
+  </si>
+  <si>
+    <t>EAPR2</t>
+  </si>
+  <si>
+    <t>EDAV</t>
+  </si>
+  <si>
+    <t>EDMR</t>
+  </si>
+  <si>
+    <t>EDSW</t>
+  </si>
+  <si>
+    <t>EGUI</t>
+  </si>
+  <si>
+    <t>ELAI</t>
+  </si>
+  <si>
+    <t>EMLR</t>
+  </si>
+  <si>
+    <t>EPCA</t>
+  </si>
+  <si>
+    <t>EROB</t>
+  </si>
+  <si>
+    <t>ETFI</t>
+  </si>
+  <si>
+    <t>KDI2</t>
+  </si>
+  <si>
+    <t>KOPS</t>
+  </si>
+  <si>
+    <t>KPYR</t>
+  </si>
+  <si>
+    <t>MTCNA</t>
+  </si>
+  <si>
+    <t>PRI</t>
+  </si>
+  <si>
+    <t>SZZ60</t>
+  </si>
+  <si>
+    <t>SZZA</t>
+  </si>
+  <si>
+    <t>SZZAD</t>
+  </si>
+  <si>
+    <t>SZZB</t>
+  </si>
+  <si>
+    <t>SZZC1</t>
+  </si>
+  <si>
     <t>SZZC2</t>
   </si>
   <si>
+    <t>SZZIV</t>
+  </si>
+  <si>
+    <t>SZZPP</t>
+  </si>
+  <si>
+    <t>SZZTD</t>
+  </si>
+  <si>
+    <t>SZZTP</t>
+  </si>
+  <si>
+    <t>SZZVP</t>
+  </si>
+  <si>
+    <t>VPOV</t>
+  </si>
+  <si>
     <t>XBP</t>
   </si>
   <si>
-    <t>KZPS</t>
-  </si>
-  <si>
-    <t>EAPR2</t>
-  </si>
-  <si>
-    <t>SZZ60</t>
-  </si>
-  <si>
-    <t>SZZTD</t>
-  </si>
-  <si>
-    <t>SZZTP</t>
-  </si>
-  <si>
-    <t>KPRI</t>
-  </si>
-  <si>
-    <t>SZZB</t>
-  </si>
-  <si>
-    <t>KOPS</t>
-  </si>
-  <si>
-    <t>SZZC1</t>
-  </si>
-  <si>
-    <t>KPCA</t>
-  </si>
-  <si>
-    <t>KPYR</t>
-  </si>
-  <si>
-    <t>PRI</t>
-  </si>
-  <si>
-    <t>ELAI</t>
-  </si>
-  <si>
-    <t>SZZAD</t>
-  </si>
-  <si>
-    <t>SZZVP</t>
-  </si>
-  <si>
-    <t>SZZA</t>
-  </si>
-  <si>
-    <t>EDSW</t>
-  </si>
-  <si>
-    <t>SZZIV</t>
-  </si>
-  <si>
-    <t>DPP</t>
-  </si>
-  <si>
-    <t>OPS</t>
-  </si>
-  <si>
-    <t>VPOV</t>
-  </si>
-  <si>
-    <t>SZZPP</t>
-  </si>
-  <si>
     <t>ZPS</t>
   </si>
   <si>
-    <t>BP2O</t>
-  </si>
-  <si>
     <t>Cv</t>
+  </si>
+  <si>
+    <t>24.4.2024</t>
+  </si>
+  <si>
+    <t>17.4.2024</t>
+  </si>
+  <si>
+    <t>15.5.2024</t>
+  </si>
+  <si>
+    <t>25.4.2024</t>
+  </si>
+  <si>
+    <t>11.4.2024</t>
+  </si>
+  <si>
+    <t>9.5.2024</t>
+  </si>
+  <si>
+    <t>16.5.2024</t>
+  </si>
+  <si>
+    <t>18.4.2024</t>
+  </si>
+  <si>
+    <t>2.5.2024</t>
+  </si>
+  <si>
+    <t>23.4.2024</t>
+  </si>
+  <si>
+    <t>7.5.2024</t>
+  </si>
+  <si>
+    <t>16.4.2024</t>
+  </si>
+  <si>
+    <t>14.5.2024</t>
+  </si>
+  <si>
+    <t>30.4.2024</t>
+  </si>
+  <si>
+    <t>4.5.2024</t>
+  </si>
+  <si>
+    <t>13.4.2024</t>
+  </si>
+  <si>
+    <t>5.5.2024</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>00:00</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>15:50</t>
+  </si>
+  <si>
+    <t>16:50</t>
+  </si>
+  <si>
+    <t>14:50</t>
+  </si>
+  <si>
+    <t>11:50</t>
+  </si>
+  <si>
+    <t>18:50</t>
+  </si>
+  <si>
+    <t>12:50</t>
+  </si>
+  <si>
+    <t>17:50</t>
+  </si>
+  <si>
+    <t>KI</t>
+  </si>
+  <si>
+    <t>Odborná praxe</t>
+  </si>
+  <si>
+    <t>Diplomová práce</t>
+  </si>
+  <si>
+    <t>Dependability of Software Systems</t>
+  </si>
+  <si>
+    <t>GUI Programming</t>
+  </si>
+  <si>
+    <t>Didaktika informatiky II</t>
+  </si>
+  <si>
+    <t>Operační systémy</t>
+  </si>
+  <si>
+    <t>Python and R for Data Science</t>
+  </si>
+  <si>
+    <t>Programování pro internet</t>
+  </si>
+  <si>
+    <t>Teoretická informatika a matematika</t>
+  </si>
+  <si>
+    <t>Programování a softwarové systémy</t>
+  </si>
+  <si>
+    <t>Hardware a počítačové sítě</t>
+  </si>
+  <si>
+    <t>Vybrané partie z operačního výzkumu</t>
+  </si>
+  <si>
+    <t>Základy počítačových sítí a protokolů</t>
+  </si>
+  <si>
+    <t>'doc. RNDr. Mgr. Viktor Maškov, DrSc.'</t>
+  </si>
+  <si>
+    <t>'RNDr. Petr Kubera, Ph.D.'</t>
+  </si>
+  <si>
+    <t>'Mgr. Kamil Balín', 'Mgr. Květuše Sýkorová'</t>
+  </si>
+  <si>
+    <t>'prof. Sergii Babichev, CSc., DSc.', 'RNDr. Jiří Škvára, Ph.D.', 'RNDr. Jiří Škvor, Ph.D.'</t>
+  </si>
+  <si>
+    <t>'Mgr. Kamil Balín', 'RNDr. Jan Krejčí, Ph.D.'</t>
+  </si>
+  <si>
+    <t>2239</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>1165, 835</t>
+  </si>
+  <si>
+    <t>3416, 6259, 2220</t>
+  </si>
+  <si>
+    <t>1165, 2776</t>
+  </si>
+  <si>
+    <t>Barilla Jiří, doc. Ing. Mgr. CSc.</t>
+  </si>
+  <si>
+    <t>Krejčí Jan, RNDr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Škvor Jiří, RNDr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Babichev Sergii, prof. CSc., DSc.</t>
+  </si>
+  <si>
+    <t>Škvára Jiří, RNDr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Beránek Pavel, Ing. Mgr.</t>
+  </si>
+  <si>
+    <t>Liegertová Michaela, Mgr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Kuba Pavel, Ing. Ph.D.</t>
+  </si>
+  <si>
+    <t>Balín Kamil, Mgr.</t>
+  </si>
+  <si>
+    <t>Burle Jan, Ing. Ph.D.</t>
+  </si>
+  <si>
+    <t>Moosaei Hossein, Dr. Ph.D.</t>
   </si>
 </sst>
 </file>
@@ -183,17 +435,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:H28" totalsRowShown="0">
-  <autoFilter ref="A1:H28"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:L72" totalsRowShown="0">
+  <autoFilter ref="A1:L72"/>
+  <tableColumns count="12">
     <tableColumn id="1" name="zkratka" dataDxfId="0"/>
     <tableColumn id="2" name="idno" dataDxfId="1"/>
     <tableColumn id="3" name="typAkceZkr" dataDxfId="0"/>
     <tableColumn id="4" name="rok" dataDxfId="1"/>
-    <tableColumn id="5" name="nazev" dataDxfId="0"/>
-    <tableColumn id="6" name="zkratka_right" dataDxfId="0"/>
-    <tableColumn id="7" name="prednasejiciUcitIdno" dataDxfId="1"/>
-    <tableColumn id="8" name="jmena" dataDxfId="0"/>
+    <tableColumn id="5" name="datum" dataDxfId="0"/>
+    <tableColumn id="6" name="hodinaSkutOd" dataDxfId="0"/>
+    <tableColumn id="7" name="hodinaSkutDo" dataDxfId="0"/>
+    <tableColumn id="8" name="katedra" dataDxfId="0"/>
+    <tableColumn id="9" name="nazev" dataDxfId="0"/>
+    <tableColumn id="10" name="cvicici" dataDxfId="0"/>
+    <tableColumn id="11" name="cviciciUcitIdno" dataDxfId="0"/>
+    <tableColumn id="12" name="jmena" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -484,13 +740,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,454 +771,2186 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B2" s="2">
+        <v>449</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2">
         <v>2023</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="2"/>
+      <c r="E2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B3" s="2">
+        <v>449</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2">
         <v>2023</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2"/>
+      <c r="E3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B4" s="2">
+        <v>449</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2">
         <v>2023</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
+      <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2">
-        <v>1165</v>
+        <v>2776</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2">
         <v>2023</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="2"/>
+      <c r="F5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2776</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2">
         <v>2023</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="2"/>
+      <c r="F6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2776</v>
+      </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2">
         <v>2023</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="2"/>
+      <c r="F7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2776</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2">
         <v>2023</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2776</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2">
         <v>2023</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="2"/>
+      <c r="F9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2">
-        <v>9642</v>
+        <v>2776</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D10" s="2">
         <v>2023</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="2"/>
+      <c r="F10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2776</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2">
         <v>2023</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="2"/>
+      <c r="F11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2">
-        <v>1165</v>
+        <v>2220</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2">
         <v>2023</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="F12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2">
         <v>2023</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="2"/>
+      <c r="F13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1165</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D14" s="2">
         <v>2023</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="2"/>
+      <c r="F14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D15" s="2">
         <v>2023</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="F15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="2">
-        <v>9642</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D16" s="2">
         <v>2023</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="2"/>
+      <c r="F16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2">
-        <v>4472</v>
+        <v>2220</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D17" s="2">
         <v>2023</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="2"/>
+      <c r="E17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3416</v>
+      </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D18" s="2">
         <v>2023</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="2"/>
+      <c r="E18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2">
+        <v>6259</v>
+      </c>
       <c r="C19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="2">
+        <v>6973</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3416</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="2">
+        <v>6973</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="2">
+        <v>6973</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2">
+        <v>6259</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2">
+        <v>6259</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2220</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <v>3416</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2220</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3416</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="2">
+        <v>3416</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="2">
+        <v>3416</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="2">
+        <v>6973</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="2">
+        <v>6973</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="2">
+        <v>6973</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="2">
+        <v>6973</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="2">
+        <v>6973</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="2">
+        <v>6973</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="2">
+        <v>4472</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="2">
+        <v>3416</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="2">
+        <v>3416</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="2">
+        <v>2317</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2317</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="2">
+        <v>2317</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2776</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="2">
+        <v>2776</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="2">
+        <v>449</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="2">
+        <v>2776</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="2">
+        <v>2776</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="2">
-        <v>2023</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2023</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="2">
-        <v>2023</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="2">
-        <v>2023</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="2">
-        <v>2023</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="2">
+      <c r="B50" s="2">
         <v>1165</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="2">
-        <v>2023</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="2">
+      <c r="C50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" s="2">
+        <v>2776</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="2">
+        <v>9642</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" s="2">
+        <v>9642</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="2">
+        <v>9642</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="2">
+        <v>9642</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="2">
+        <v>9642</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D60" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D64" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D65" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D66" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D67" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D68" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B69" s="2">
         <v>9114</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="2">
-        <v>2023</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="2">
-        <v>2023</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="2">
-        <v>2023</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="2">
-        <v>2023</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="1"/>
+      <c r="C69" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70" s="2">
+        <v>9114</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D70" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D71" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D72" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L72" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/cviceni_bez_cvicich.xlsx
+++ b/results/cviceni_bez_cvicich.xlsx
@@ -181,51 +181,51 @@
     <t>24.4.2024</t>
   </si>
   <si>
+    <t>15.5.2024</t>
+  </si>
+  <si>
     <t>17.4.2024</t>
   </si>
   <si>
-    <t>15.5.2024</t>
+    <t>9.5.2024</t>
+  </si>
+  <si>
+    <t>11.4.2024</t>
   </si>
   <si>
     <t>25.4.2024</t>
   </si>
   <si>
-    <t>11.4.2024</t>
-  </si>
-  <si>
-    <t>9.5.2024</t>
+    <t>2.5.2024</t>
+  </si>
+  <si>
+    <t>18.4.2024</t>
   </si>
   <si>
     <t>16.5.2024</t>
   </si>
   <si>
-    <t>18.4.2024</t>
-  </si>
-  <si>
-    <t>2.5.2024</t>
-  </si>
-  <si>
     <t>23.4.2024</t>
   </si>
   <si>
     <t>7.5.2024</t>
   </si>
   <si>
+    <t>30.4.2024</t>
+  </si>
+  <si>
     <t>16.4.2024</t>
   </si>
   <si>
     <t>14.5.2024</t>
   </si>
   <si>
-    <t>30.4.2024</t>
+    <t>13.4.2024</t>
   </si>
   <si>
     <t>4.5.2024</t>
   </si>
   <si>
-    <t>13.4.2024</t>
-  </si>
-  <si>
     <t>5.5.2024</t>
   </si>
   <si>
@@ -352,13 +352,13 @@
     <t>Škvor Jiří, RNDr. Ph.D.</t>
   </si>
   <si>
+    <t>Škvára Jiří, RNDr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Beránek Pavel, Ing. Mgr.</t>
+  </si>
+  <si>
     <t>Babichev Sergii, prof. CSc., DSc.</t>
-  </si>
-  <si>
-    <t>Škvára Jiří, RNDr. Ph.D.</t>
-  </si>
-  <si>
-    <t>Beránek Pavel, Ing. Mgr.</t>
   </si>
   <si>
     <t>Liegertová Michaela, Mgr. Ph.D.</t>
@@ -1207,7 +1207,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="2">
-        <v>2220</v>
+        <v>6259</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>53</v>
@@ -1216,7 +1216,7 @@
         <v>2023</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>73</v>
@@ -1229,7 +1229,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1237,7 +1237,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="2">
-        <v>3416</v>
+        <v>2220</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>53</v>
@@ -1259,7 +1259,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1267,7 +1267,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="2">
-        <v>6259</v>
+        <v>6973</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>53</v>
@@ -1297,7 +1297,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="2">
-        <v>6973</v>
+        <v>3416</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>53</v>
@@ -1306,7 +1306,7 @@
         <v>2023</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>73</v>
@@ -1327,7 +1327,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>3416</v>
+        <v>6259</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>53</v>
@@ -1336,7 +1336,7 @@
         <v>2023</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>73</v>
@@ -1357,7 +1357,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="2">
-        <v>6973</v>
+        <v>2220</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>53</v>
@@ -1379,7 +1379,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1396,7 +1396,7 @@
         <v>2023</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>73</v>
@@ -1409,7 +1409,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1417,7 +1417,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="2">
-        <v>6259</v>
+        <v>3416</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>53</v>
@@ -1426,7 +1426,7 @@
         <v>2023</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>73</v>
@@ -1439,7 +1439,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1447,7 +1447,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>6259</v>
+        <v>2220</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>53</v>
@@ -1469,7 +1469,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1477,7 +1477,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>2220</v>
+        <v>3416</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>53</v>
@@ -1486,7 +1486,7 @@
         <v>2023</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>73</v>
@@ -1499,7 +1499,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1507,7 +1507,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>3416</v>
+        <v>6259</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>53</v>
@@ -1537,7 +1537,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="2">
-        <v>2220</v>
+        <v>6973</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>53</v>
@@ -1546,7 +1546,7 @@
         <v>2023</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>73</v>
@@ -1559,7 +1559,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1589,7 +1589,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1619,7 +1619,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1649,7 +1649,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1698,7 +1698,7 @@
         <v>2023</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>74</v>
@@ -1719,7 +1719,7 @@
         <v>105</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1736,7 +1736,7 @@
         <v>2023</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>74</v>
@@ -1757,7 +1757,7 @@
         <v>105</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1774,7 +1774,7 @@
         <v>2023</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>74</v>
@@ -1795,7 +1795,7 @@
         <v>105</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1833,7 +1833,7 @@
         <v>105</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1850,7 +1850,7 @@
         <v>2023</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>74</v>
@@ -1871,7 +1871,7 @@
         <v>105</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1888,7 +1888,7 @@
         <v>2023</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>74</v>
@@ -1909,7 +1909,7 @@
         <v>105</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1967,7 +1967,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1997,7 +1997,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2134,7 +2134,7 @@
         <v>2023</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>76</v>
@@ -2197,10 +2197,10 @@
         <v>68</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>85</v>
@@ -2235,10 +2235,10 @@
         <v>69</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>85</v>
@@ -2368,7 +2368,7 @@
         <v>2023</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>76</v>
@@ -2406,7 +2406,7 @@
         <v>2023</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>76</v>
@@ -2444,7 +2444,7 @@
         <v>2023</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>76</v>
@@ -2520,7 +2520,7 @@
         <v>2023</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>76</v>
@@ -2834,7 +2834,7 @@
         <v>2023</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>73</v>
@@ -2872,7 +2872,7 @@
         <v>2023</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>73</v>

--- a/results/cviceni_bez_cvicich.xlsx
+++ b/results/cviceni_bez_cvicich.xlsx
@@ -2236,21 +2236,21 @@
     <t>Nguyen Thi Thu Huong, RNDr. Ph.D.</t>
   </si>
   <si>
+    <t>Havlica Jaromír, doc. Ing. Ph.D.</t>
+  </si>
+  <si>
+    <t>Nezbeda Ivo, prof. RNDr. DrSc.</t>
+  </si>
+  <si>
+    <t>Šícha Václav, RNDr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Vrtoch Ľuboš, RNDr. PhD., Ph.D.</t>
+  </si>
+  <si>
     <t>Čermák Jan, doc. Ing. CSc.</t>
   </si>
   <si>
-    <t>Vrtoch Ľuboš, RNDr. PhD., Ph.D.</t>
-  </si>
-  <si>
-    <t>Šícha Václav, RNDr. Ph.D.</t>
-  </si>
-  <si>
-    <t>Havlica Jaromír, doc. Ing. Ph.D.</t>
-  </si>
-  <si>
-    <t>Nezbeda Ivo, prof. RNDr. DrSc.</t>
-  </si>
-  <si>
     <t>Dušková Tereza, Mgr.</t>
   </si>
   <si>
@@ -2338,12 +2338,12 @@
     <t>Kasperová Jana, Mgr.</t>
   </si>
   <si>
+    <t>Maškov Viktor, doc. RNDr. Mgr. DrSc.</t>
+  </si>
+  <si>
     <t>Beránek Pavel, Ing. Mgr.</t>
   </si>
   <si>
-    <t>Maškov Viktor, doc. RNDr. Mgr. DrSc.</t>
-  </si>
-  <si>
     <t>Kormunda Martin, doc. Ing. Ph.D.</t>
   </si>
   <si>
@@ -2368,12 +2368,12 @@
     <t>Kuba Pavel, Ing. Ph.D.</t>
   </si>
   <si>
+    <t>Kolská Zdeňka, prof. Ing. Ph.D.</t>
+  </si>
+  <si>
     <t>Daniš Stanislav, doc. RNDr. Ph.D.</t>
   </si>
   <si>
-    <t>Kolská Zdeňka, prof. Ing. Ph.D.</t>
-  </si>
-  <si>
     <t>Svoboda Martin, Mgr. Ph.D.</t>
   </si>
   <si>
@@ -2419,12 +2419,12 @@
     <t>Ryšánek Petr, RNDr. Ph.D.</t>
   </si>
   <si>
+    <t>Kubera Petr, RNDr. Ph.D.</t>
+  </si>
+  <si>
     <t>Moosaei Hossein, Dr. Ph.D.</t>
   </si>
   <si>
-    <t>Kubera Petr, RNDr. Ph.D.</t>
-  </si>
-  <si>
     <t>Balín Kamil, Mgr.</t>
   </si>
   <si>
@@ -2452,12 +2452,12 @@
     <t>Malý Jan, Mgr. Ph.D.</t>
   </si>
   <si>
+    <t>Koutský Jaroslav, doc. RNDr. Ph.D.</t>
+  </si>
+  <si>
     <t>Lísal Martin, prof. Ing. DSc.</t>
   </si>
   <si>
-    <t>Koutský Jaroslav, doc. RNDr. Ph.D.</t>
-  </si>
-  <si>
     <t>Matoušek Jindřich, Mgr. Ph.D.</t>
   </si>
   <si>
@@ -2473,12 +2473,12 @@
     <t>Domín Martin, Ing.</t>
   </si>
   <si>
+    <t>Zábranský Vilém, Mgr. Ph.D.</t>
+  </si>
+  <si>
     <t>Paříková Anna, Mgr.</t>
   </si>
   <si>
-    <t>Zábranský Vilém, Mgr. Ph.D.</t>
-  </si>
-  <si>
     <t>Kaule Pavel, Mgr.</t>
   </si>
   <si>
@@ -2506,16 +2506,16 @@
     <t>Oravová Lucie, Ing. Ph.D.</t>
   </si>
   <si>
+    <t>Kuráň Pavel, doc. Dr. Ing.</t>
+  </si>
+  <si>
     <t>Barchánková Ivana, Ing. Ph.D.</t>
   </si>
   <si>
-    <t>Kuráň Pavel, doc. Dr. Ing.</t>
+    <t>Kříženecká Sylvie, Ing. Ph.D.</t>
   </si>
   <si>
     <t>Janoš Pavel, prof. Ing. CSc.</t>
-  </si>
-  <si>
-    <t>Kříženecká Sylvie, Ing. Ph.D.</t>
   </si>
   <si>
     <t>Macková Anna, prof. doc. RNDr. Ph.D.</t>
@@ -3622,9 +3622,7 @@
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="2">
-        <v>6919</v>
-      </c>
+      <c r="B26" s="2"/>
       <c r="C26" s="1" t="s">
         <v>466</v>
       </c>
@@ -3633,24 +3631,24 @@
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="1" t="s">
-        <v>726</v>
-      </c>
+      <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="2">
+        <v>6919</v>
+      </c>
       <c r="C27" s="1" t="s">
         <v>466</v>
       </c>
@@ -3659,16 +3657,18 @@
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
+      <c r="L27" s="1" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
@@ -3738,7 +3738,9 @@
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="2">
+        <v>264</v>
+      </c>
       <c r="C30" s="1" t="s">
         <v>466</v>
       </c>
@@ -3747,24 +3749,24 @@
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
+      <c r="L30" s="1" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="2">
-        <v>264</v>
-      </c>
+      <c r="B31" s="2"/>
       <c r="C31" s="1" t="s">
         <v>466</v>
       </c>
@@ -3773,18 +3775,16 @@
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="1" t="s">
-        <v>729</v>
-      </c>
+      <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
@@ -3945,10 +3945,10 @@
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -3973,10 +3973,10 @@
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -4001,10 +4001,10 @@
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -4029,10 +4029,10 @@
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -4057,10 +4057,10 @@
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -4103,7 +4103,7 @@
         <v>45</v>
       </c>
       <c r="B43" s="2">
-        <v>1472</v>
+        <v>1319</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>466</v>
@@ -4113,25 +4113,23 @@
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="L43" s="1" t="s">
-        <v>735</v>
-      </c>
+      <c r="L43" s="1"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B44" s="2">
-        <v>1319</v>
+        <v>1472</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>466</v>
@@ -4141,23 +4139,25 @@
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
+      <c r="L44" s="1" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>1472</v>
+        <v>1800</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>466</v>
@@ -4167,18 +4167,16 @@
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-      <c r="L45" s="1" t="s">
-        <v>735</v>
-      </c>
+      <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
@@ -4195,10 +4193,10 @@
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -4213,7 +4211,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>1800</v>
+        <v>1472</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>466</v>
@@ -4223,16 +4221,18 @@
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
+      <c r="L47" s="1" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
@@ -4249,10 +4249,10 @@
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -4305,10 +4305,10 @@
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -4333,10 +4333,10 @@
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -4361,10 +4361,10 @@
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -4389,10 +4389,10 @@
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -4435,7 +4435,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="2">
-        <v>429</v>
+        <v>4226</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>466</v>
@@ -4445,17 +4445,17 @@
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -4463,7 +4463,7 @@
         <v>47</v>
       </c>
       <c r="B56" s="2">
-        <v>4226</v>
+        <v>429</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>466</v>
@@ -4473,17 +4473,17 @@
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -4491,7 +4491,7 @@
         <v>48</v>
       </c>
       <c r="B57" s="2">
-        <v>1064</v>
+        <v>1803</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>466</v>
@@ -4519,7 +4519,7 @@
         <v>48</v>
       </c>
       <c r="B58" s="2">
-        <v>7723</v>
+        <v>2856</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>466</v>
@@ -4539,7 +4539,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4547,7 +4547,7 @@
         <v>48</v>
       </c>
       <c r="B59" s="2">
-        <v>4117</v>
+        <v>305</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>466</v>
@@ -4603,7 +4603,7 @@
         <v>48</v>
       </c>
       <c r="B61" s="2">
-        <v>2856</v>
+        <v>4310</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>466</v>
@@ -4623,7 +4623,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1" t="s">
-        <v>715</v>
+        <v>742</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4631,7 +4631,7 @@
         <v>48</v>
       </c>
       <c r="B62" s="2">
-        <v>4310</v>
+        <v>7723</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>466</v>
@@ -4651,7 +4651,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1" t="s">
-        <v>742</v>
+        <v>725</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4659,7 +4659,7 @@
         <v>48</v>
       </c>
       <c r="B63" s="2">
-        <v>1803</v>
+        <v>4117</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>466</v>
@@ -4687,7 +4687,7 @@
         <v>48</v>
       </c>
       <c r="B64" s="2">
-        <v>305</v>
+        <v>1064</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>466</v>
@@ -4781,10 +4781,10 @@
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -4827,7 +4827,7 @@
         <v>51</v>
       </c>
       <c r="B69" s="2">
-        <v>4226</v>
+        <v>4303</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>466</v>
@@ -4837,17 +4837,17 @@
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1" t="s">
-        <v>738</v>
+        <v>714</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4865,10 +4865,10 @@
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -4883,7 +4883,7 @@
         <v>51</v>
       </c>
       <c r="B71" s="2">
-        <v>4303</v>
+        <v>4226</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>466</v>
@@ -4893,17 +4893,17 @@
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1" t="s">
-        <v>714</v>
+        <v>738</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4921,10 +4921,10 @@
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -4939,7 +4939,7 @@
         <v>52</v>
       </c>
       <c r="B73" s="2">
-        <v>9521</v>
+        <v>9245</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>466</v>
@@ -4959,7 +4959,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4977,10 +4977,10 @@
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -4995,7 +4995,7 @@
         <v>52</v>
       </c>
       <c r="B75" s="2">
-        <v>9245</v>
+        <v>3704</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>466</v>
@@ -5005,17 +5005,17 @@
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -5023,7 +5023,7 @@
         <v>52</v>
       </c>
       <c r="B76" s="2">
-        <v>9245</v>
+        <v>9521</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>466</v>
@@ -5033,17 +5033,17 @@
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -5051,7 +5051,7 @@
         <v>52</v>
       </c>
       <c r="B77" s="2">
-        <v>3704</v>
+        <v>9245</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>466</v>
@@ -5061,17 +5061,17 @@
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -5099,7 +5099,7 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -5127,7 +5127,7 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -5211,7 +5211,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -5247,7 +5247,7 @@
         <v>58</v>
       </c>
       <c r="B84" s="2">
-        <v>3164</v>
+        <v>9521</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>466</v>
@@ -5257,17 +5257,17 @@
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1" t="s">
-        <v>717</v>
+        <v>747</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5303,7 +5303,7 @@
         <v>58</v>
       </c>
       <c r="B86" s="2">
-        <v>9521</v>
+        <v>3164</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>466</v>
@@ -5313,17 +5313,17 @@
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1" t="s">
-        <v>747</v>
+        <v>717</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5331,7 +5331,7 @@
         <v>58</v>
       </c>
       <c r="B87" s="2">
-        <v>9521</v>
+        <v>3164</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>466</v>
@@ -5341,17 +5341,17 @@
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1" t="s">
-        <v>747</v>
+        <v>717</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5359,7 +5359,7 @@
         <v>58</v>
       </c>
       <c r="B88" s="2">
-        <v>3164</v>
+        <v>9521</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>466</v>
@@ -5369,17 +5369,17 @@
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1" t="s">
-        <v>717</v>
+        <v>747</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5387,7 +5387,7 @@
         <v>59</v>
       </c>
       <c r="B89" s="2">
-        <v>2856</v>
+        <v>5856</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>466</v>
@@ -5397,17 +5397,17 @@
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1" t="s">
-        <v>715</v>
+        <v>750</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5415,7 +5415,7 @@
         <v>59</v>
       </c>
       <c r="B90" s="2">
-        <v>5856</v>
+        <v>2856</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>466</v>
@@ -5425,17 +5425,17 @@
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1" t="s">
-        <v>750</v>
+        <v>715</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5499,7 +5499,7 @@
         <v>61</v>
       </c>
       <c r="B93" s="2">
-        <v>8419</v>
+        <v>9265</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>466</v>
@@ -5509,17 +5509,17 @@
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1" t="s">
-        <v>751</v>
+        <v>721</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5527,7 +5527,7 @@
         <v>61</v>
       </c>
       <c r="B94" s="2">
-        <v>9265</v>
+        <v>8647</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>466</v>
@@ -5537,17 +5537,17 @@
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5583,7 +5583,7 @@
         <v>61</v>
       </c>
       <c r="B96" s="2">
-        <v>8647</v>
+        <v>8419</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>466</v>
@@ -5593,17 +5593,17 @@
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1" t="s">
-        <v>722</v>
+        <v>751</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5693,7 +5693,7 @@
         <v>64</v>
       </c>
       <c r="B100" s="2">
-        <v>6919</v>
+        <v>9431</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>466</v>
@@ -5703,7 +5703,7 @@
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>488</v>
@@ -5713,7 +5713,7 @@
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1" t="s">
-        <v>726</v>
+        <v>753</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5749,7 +5749,7 @@
         <v>64</v>
       </c>
       <c r="B102" s="2">
-        <v>9431</v>
+        <v>6919</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>466</v>
@@ -5759,17 +5759,17 @@
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1" t="s">
-        <v>753</v>
+        <v>726</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5787,10 +5787,10 @@
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -5853,7 +5853,7 @@
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5945,7 +5945,7 @@
         <v>69</v>
       </c>
       <c r="B109" s="2">
-        <v>1064</v>
+        <v>828</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>466</v>
@@ -5955,25 +5955,23 @@
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
-      <c r="L109" s="1" t="s">
-        <v>740</v>
-      </c>
+      <c r="L109" s="1"/>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B110" s="2">
-        <v>828</v>
+        <v>1064</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>466</v>
@@ -5983,16 +5981,18 @@
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
-      <c r="L110" s="1"/>
+      <c r="L110" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="1" t="s">
@@ -6049,7 +6049,7 @@
         <v>71</v>
       </c>
       <c r="B113" s="2">
-        <v>828</v>
+        <v>4117</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>466</v>
@@ -6059,23 +6059,25 @@
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
-      <c r="L113" s="1"/>
+      <c r="L113" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B114" s="2">
-        <v>4117</v>
+        <v>828</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>466</v>
@@ -6085,25 +6087,23 @@
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
-      <c r="L114" s="1" t="s">
-        <v>741</v>
-      </c>
+      <c r="L114" s="1"/>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B115" s="2">
-        <v>3164</v>
+        <v>4226</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>466</v>
@@ -6113,17 +6113,17 @@
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1" t="s">
-        <v>717</v>
+        <v>738</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6131,7 +6131,7 @@
         <v>72</v>
       </c>
       <c r="B116" s="2">
-        <v>4226</v>
+        <v>3164</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>466</v>
@@ -6141,17 +6141,17 @@
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1" t="s">
-        <v>738</v>
+        <v>717</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6299,10 +6299,10 @@
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>496</v>
@@ -6329,10 +6329,10 @@
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>496</v>
@@ -6359,10 +6359,10 @@
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>496</v>
@@ -6487,7 +6487,7 @@
         <v>79</v>
       </c>
       <c r="B127" s="2">
-        <v>3164</v>
+        <v>315</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>466</v>
@@ -6507,7 +6507,7 @@
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
       <c r="L127" s="1" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6515,7 +6515,7 @@
         <v>79</v>
       </c>
       <c r="B128" s="2">
-        <v>315</v>
+        <v>3164</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>466</v>
@@ -6535,7 +6535,7 @@
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
       <c r="L128" s="1" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6805,10 +6805,10 @@
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
@@ -6823,7 +6823,7 @@
         <v>87</v>
       </c>
       <c r="B138" s="2">
-        <v>2855</v>
+        <v>2856</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>466</v>
@@ -6843,7 +6843,7 @@
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
       <c r="L138" s="1" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -6907,7 +6907,7 @@
         <v>87</v>
       </c>
       <c r="B141" s="2">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>466</v>
@@ -6917,17 +6917,17 @@
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
       <c r="L141" s="1" t="s">
-        <v>715</v>
+        <v>731</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7017,7 +7017,7 @@
         <v>90</v>
       </c>
       <c r="B145" s="2">
-        <v>3661</v>
+        <v>4310</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>466</v>
@@ -7030,14 +7030,14 @@
         <v>476</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
       <c r="L145" s="1" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7045,7 +7045,7 @@
         <v>90</v>
       </c>
       <c r="B146" s="2">
-        <v>4310</v>
+        <v>3661</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>466</v>
@@ -7058,14 +7058,14 @@
         <v>476</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
       <c r="L146" s="1" t="s">
-        <v>742</v>
+        <v>758</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7083,10 +7083,10 @@
       </c>
       <c r="E147" s="1"/>
       <c r="F147" s="1" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
@@ -7101,7 +7101,7 @@
         <v>91</v>
       </c>
       <c r="B148" s="2">
-        <v>8526</v>
+        <v>4226</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>466</v>
@@ -7111,17 +7111,17 @@
       </c>
       <c r="E148" s="1"/>
       <c r="F148" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
       <c r="L148" s="1" t="s">
-        <v>759</v>
+        <v>738</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7129,7 +7129,7 @@
         <v>91</v>
       </c>
       <c r="B149" s="2">
-        <v>4226</v>
+        <v>8526</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>466</v>
@@ -7139,17 +7139,17 @@
       </c>
       <c r="E149" s="1"/>
       <c r="F149" s="1" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
       <c r="L149" s="1" t="s">
-        <v>738</v>
+        <v>759</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7167,10 +7167,10 @@
       </c>
       <c r="E150" s="1"/>
       <c r="F150" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
@@ -7241,7 +7241,7 @@
         <v>93</v>
       </c>
       <c r="B153" s="2">
-        <v>4310</v>
+        <v>2856</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>466</v>
@@ -7261,7 +7261,7 @@
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
       <c r="L153" s="1" t="s">
-        <v>742</v>
+        <v>715</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7269,7 +7269,7 @@
         <v>93</v>
       </c>
       <c r="B154" s="2">
-        <v>1064</v>
+        <v>8441</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>466</v>
@@ -7279,17 +7279,17 @@
       </c>
       <c r="E154" s="1"/>
       <c r="F154" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
       <c r="L154" s="1" t="s">
-        <v>740</v>
+        <v>761</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7317,7 +7317,7 @@
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
       <c r="L155" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7325,7 +7325,7 @@
         <v>93</v>
       </c>
       <c r="B156" s="2">
-        <v>8441</v>
+        <v>4226</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>466</v>
@@ -7335,17 +7335,17 @@
       </c>
       <c r="E156" s="1"/>
       <c r="F156" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
       <c r="L156" s="1" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7353,7 +7353,7 @@
         <v>93</v>
       </c>
       <c r="B157" s="2">
-        <v>4226</v>
+        <v>1064</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>466</v>
@@ -7373,7 +7373,7 @@
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
       <c r="L157" s="1" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7381,7 +7381,7 @@
         <v>93</v>
       </c>
       <c r="B158" s="2">
-        <v>2856</v>
+        <v>4117</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>466</v>
@@ -7401,7 +7401,7 @@
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
       <c r="L158" s="1" t="s">
-        <v>715</v>
+        <v>743</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7409,7 +7409,7 @@
         <v>93</v>
       </c>
       <c r="B159" s="2">
-        <v>4117</v>
+        <v>4310</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>466</v>
@@ -7429,7 +7429,7 @@
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
       <c r="L159" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7447,10 +7447,10 @@
       </c>
       <c r="E160" s="1"/>
       <c r="F160" s="1" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
@@ -7475,10 +7475,10 @@
       </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
@@ -7593,7 +7593,7 @@
         <v>98</v>
       </c>
       <c r="B165" s="2">
-        <v>9145</v>
+        <v>4226</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>466</v>
@@ -7606,14 +7606,14 @@
         <v>476</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
       <c r="L165" s="1" t="s">
-        <v>765</v>
+        <v>738</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -7631,10 +7631,10 @@
       </c>
       <c r="E166" s="1"/>
       <c r="F166" s="1" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
@@ -7649,7 +7649,7 @@
         <v>98</v>
       </c>
       <c r="B167" s="2">
-        <v>4226</v>
+        <v>9145</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>466</v>
@@ -7659,17 +7659,17 @@
       </c>
       <c r="E167" s="1"/>
       <c r="F167" s="1" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
       <c r="L167" s="1" t="s">
-        <v>738</v>
+        <v>765</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -7705,7 +7705,7 @@
         <v>99</v>
       </c>
       <c r="B169" s="2">
-        <v>5969</v>
+        <v>3661</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>466</v>
@@ -7725,7 +7725,7 @@
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
       <c r="L169" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -7733,7 +7733,7 @@
         <v>99</v>
       </c>
       <c r="B170" s="2">
-        <v>3661</v>
+        <v>5969</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>466</v>
@@ -7753,7 +7753,7 @@
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
       <c r="L170" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -7771,17 +7771,17 @@
       </c>
       <c r="E171" s="1"/>
       <c r="F171" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
       <c r="L171" s="1" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -7809,7 +7809,7 @@
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
       <c r="L172" s="1" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -7817,7 +7817,7 @@
         <v>100</v>
       </c>
       <c r="B173" s="2">
-        <v>930</v>
+        <v>4117</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>466</v>
@@ -7827,17 +7827,17 @@
       </c>
       <c r="E173" s="1"/>
       <c r="F173" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
       <c r="L173" s="1" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -7845,7 +7845,7 @@
         <v>100</v>
       </c>
       <c r="B174" s="2">
-        <v>4117</v>
+        <v>930</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>466</v>
@@ -7855,7 +7855,7 @@
       </c>
       <c r="E174" s="1"/>
       <c r="F174" s="1" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="G174" s="1" t="s">
         <v>482</v>
@@ -7865,7 +7865,7 @@
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
       <c r="L174" s="1" t="s">
-        <v>741</v>
+        <v>766</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -7883,17 +7883,17 @@
       </c>
       <c r="E175" s="1"/>
       <c r="F175" s="1" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
       <c r="L175" s="1" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -7939,10 +7939,10 @@
       </c>
       <c r="E177" s="1"/>
       <c r="F177" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>497</v>
@@ -7975,10 +7975,10 @@
       </c>
       <c r="E178" s="1"/>
       <c r="F178" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>497</v>
@@ -8111,7 +8111,7 @@
         <v>106</v>
       </c>
       <c r="B183" s="2">
-        <v>5969</v>
+        <v>1503</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>466</v>
@@ -8131,7 +8131,7 @@
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
       <c r="L183" s="1" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8149,10 +8149,10 @@
       </c>
       <c r="E184" s="1"/>
       <c r="F184" s="1" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
@@ -8167,7 +8167,7 @@
         <v>106</v>
       </c>
       <c r="B185" s="2">
-        <v>1503</v>
+        <v>4226</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>466</v>
@@ -8177,17 +8177,17 @@
       </c>
       <c r="E185" s="1"/>
       <c r="F185" s="1" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
       <c r="L185" s="1" t="s">
-        <v>768</v>
+        <v>738</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8195,7 +8195,7 @@
         <v>106</v>
       </c>
       <c r="B186" s="2">
-        <v>4226</v>
+        <v>5969</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>466</v>
@@ -8215,7 +8215,7 @@
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
       <c r="L186" s="1" t="s">
-        <v>738</v>
+        <v>757</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8439,7 +8439,7 @@
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
       <c r="L194" s="1" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -8471,7 +8471,7 @@
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
       <c r="L195" s="1" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -8541,10 +8541,10 @@
       </c>
       <c r="E198" s="1"/>
       <c r="F198" s="1" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="H198" s="1" t="s">
         <v>499</v>
@@ -8575,10 +8575,10 @@
       </c>
       <c r="E199" s="1"/>
       <c r="F199" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="H199" s="1" t="s">
         <v>499</v>
@@ -8823,10 +8823,10 @@
       </c>
       <c r="E207" s="1"/>
       <c r="F207" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="H207" s="1" t="s">
         <v>499</v>
@@ -8859,10 +8859,10 @@
       </c>
       <c r="E208" s="1"/>
       <c r="F208" s="1" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="H208" s="1" t="s">
         <v>499</v>
@@ -9353,7 +9353,7 @@
         <v>139</v>
       </c>
       <c r="B225" s="2">
-        <v>6973</v>
+        <v>2239</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>466</v>
@@ -9381,7 +9381,7 @@
         <v>139</v>
       </c>
       <c r="B226" s="2">
-        <v>2239</v>
+        <v>6973</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>466</v>
@@ -9597,7 +9597,7 @@
         <v>146</v>
       </c>
       <c r="B234" s="2">
-        <v>3528</v>
+        <v>1434</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>466</v>
@@ -9617,7 +9617,7 @@
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
       <c r="L234" s="1" t="s">
-        <v>755</v>
+        <v>778</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -9625,7 +9625,7 @@
         <v>146</v>
       </c>
       <c r="B235" s="2">
-        <v>2856</v>
+        <v>3528</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>466</v>
@@ -9645,7 +9645,7 @@
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
       <c r="L235" s="1" t="s">
-        <v>715</v>
+        <v>755</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -9653,7 +9653,7 @@
         <v>146</v>
       </c>
       <c r="B236" s="2">
-        <v>1434</v>
+        <v>2856</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>466</v>
@@ -9673,7 +9673,7 @@
       <c r="J236" s="1"/>
       <c r="K236" s="1"/>
       <c r="L236" s="1" t="s">
-        <v>778</v>
+        <v>715</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -9681,7 +9681,7 @@
         <v>147</v>
       </c>
       <c r="B237" s="2">
-        <v>1434</v>
+        <v>3528</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>466</v>
@@ -9701,7 +9701,7 @@
       <c r="J237" s="1"/>
       <c r="K237" s="1"/>
       <c r="L237" s="1" t="s">
-        <v>778</v>
+        <v>755</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -9709,7 +9709,7 @@
         <v>147</v>
       </c>
       <c r="B238" s="2">
-        <v>3528</v>
+        <v>1434</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>466</v>
@@ -9729,7 +9729,7 @@
       <c r="J238" s="1"/>
       <c r="K238" s="1"/>
       <c r="L238" s="1" t="s">
-        <v>755</v>
+        <v>778</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -9873,7 +9873,7 @@
         <v>152</v>
       </c>
       <c r="B244" s="2">
-        <v>6259</v>
+        <v>2220</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>466</v>
@@ -9893,7 +9893,7 @@
       <c r="J244" s="1"/>
       <c r="K244" s="1"/>
       <c r="L244" s="1" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -9901,7 +9901,7 @@
         <v>152</v>
       </c>
       <c r="B245" s="2">
-        <v>3416</v>
+        <v>6259</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>466</v>
@@ -9921,7 +9921,7 @@
       <c r="J245" s="1"/>
       <c r="K245" s="1"/>
       <c r="L245" s="1" t="s">
-        <v>724</v>
+        <v>779</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -9929,7 +9929,7 @@
         <v>152</v>
       </c>
       <c r="B246" s="2">
-        <v>6973</v>
+        <v>3416</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>466</v>
@@ -9949,7 +9949,7 @@
       <c r="J246" s="1"/>
       <c r="K246" s="1"/>
       <c r="L246" s="1" t="s">
-        <v>774</v>
+        <v>724</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -9957,7 +9957,7 @@
         <v>152</v>
       </c>
       <c r="B247" s="2">
-        <v>2220</v>
+        <v>6973</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>466</v>
@@ -9977,7 +9977,7 @@
       <c r="J247" s="1"/>
       <c r="K247" s="1"/>
       <c r="L247" s="1" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -10073,7 +10073,7 @@
         <v>668</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -10293,7 +10293,7 @@
         <v>163</v>
       </c>
       <c r="B258" s="2">
-        <v>4226</v>
+        <v>2384</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>466</v>
@@ -10313,7 +10313,7 @@
       <c r="J258" s="1"/>
       <c r="K258" s="1"/>
       <c r="L258" s="1" t="s">
-        <v>738</v>
+        <v>776</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -10321,7 +10321,7 @@
         <v>163</v>
       </c>
       <c r="B259" s="2">
-        <v>2384</v>
+        <v>4226</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>466</v>
@@ -10341,7 +10341,7 @@
       <c r="J259" s="1"/>
       <c r="K259" s="1"/>
       <c r="L259" s="1" t="s">
-        <v>776</v>
+        <v>738</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -10349,7 +10349,7 @@
         <v>164</v>
       </c>
       <c r="B260" s="2">
-        <v>9281</v>
+        <v>332</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>466</v>
@@ -10377,7 +10377,7 @@
         <v>164</v>
       </c>
       <c r="B261" s="2">
-        <v>332</v>
+        <v>9281</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>466</v>
@@ -10657,7 +10657,7 @@
       <c r="J270" s="1"/>
       <c r="K270" s="1"/>
       <c r="L270" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -10801,7 +10801,7 @@
         <v>176</v>
       </c>
       <c r="B276" s="2">
-        <v>930</v>
+        <v>8512</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>466</v>
@@ -10821,7 +10821,7 @@
       <c r="J276" s="1"/>
       <c r="K276" s="1"/>
       <c r="L276" s="1" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -10829,7 +10829,7 @@
         <v>176</v>
       </c>
       <c r="B277" s="2">
-        <v>8512</v>
+        <v>930</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>466</v>
@@ -10849,7 +10849,7 @@
       <c r="J277" s="1"/>
       <c r="K277" s="1"/>
       <c r="L277" s="1" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -10985,7 +10985,7 @@
         <v>181</v>
       </c>
       <c r="B282" s="2">
-        <v>283</v>
+        <v>1803</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>466</v>
@@ -10995,17 +10995,17 @@
       </c>
       <c r="E282" s="1"/>
       <c r="F282" s="1" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="H282" s="1"/>
       <c r="I282" s="1"/>
       <c r="J282" s="1"/>
       <c r="K282" s="1"/>
       <c r="L282" s="1" t="s">
-        <v>760</v>
+        <v>740</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -11013,7 +11013,7 @@
         <v>181</v>
       </c>
       <c r="B283" s="2">
-        <v>1803</v>
+        <v>283</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>466</v>
@@ -11023,17 +11023,17 @@
       </c>
       <c r="E283" s="1"/>
       <c r="F283" s="1" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="H283" s="1"/>
       <c r="I283" s="1"/>
       <c r="J283" s="1"/>
       <c r="K283" s="1"/>
       <c r="L283" s="1" t="s">
-        <v>743</v>
+        <v>760</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -11189,7 +11189,7 @@
         <v>673</v>
       </c>
       <c r="L288" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -11337,7 +11337,7 @@
         <v>189</v>
       </c>
       <c r="B294" s="2">
-        <v>9500</v>
+        <v>2939</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>466</v>
@@ -11356,7 +11356,9 @@
       <c r="I294" s="1"/>
       <c r="J294" s="1"/>
       <c r="K294" s="1"/>
-      <c r="L294" s="1"/>
+      <c r="L294" s="1" t="s">
+        <v>792</v>
+      </c>
     </row>
     <row r="295" spans="1:12">
       <c r="A295" s="1" t="s">
@@ -11389,7 +11391,7 @@
         <v>189</v>
       </c>
       <c r="B296" s="2">
-        <v>2939</v>
+        <v>9500</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>466</v>
@@ -11399,18 +11401,16 @@
       </c>
       <c r="E296" s="1"/>
       <c r="F296" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="H296" s="1"/>
       <c r="I296" s="1"/>
       <c r="J296" s="1"/>
       <c r="K296" s="1"/>
-      <c r="L296" s="1" t="s">
-        <v>792</v>
-      </c>
+      <c r="L296" s="1"/>
     </row>
     <row r="297" spans="1:12">
       <c r="A297" s="1" t="s">
@@ -11427,10 +11427,10 @@
       </c>
       <c r="E297" s="1"/>
       <c r="F297" s="1" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="H297" s="1"/>
       <c r="I297" s="1"/>
@@ -11607,7 +11607,7 @@
         <v>195</v>
       </c>
       <c r="B304" s="2">
-        <v>8280</v>
+        <v>264</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>466</v>
@@ -11617,17 +11617,17 @@
       </c>
       <c r="E304" s="1"/>
       <c r="F304" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="H304" s="1"/>
       <c r="I304" s="1"/>
       <c r="J304" s="1"/>
       <c r="K304" s="1"/>
       <c r="L304" s="1" t="s">
-        <v>762</v>
+        <v>729</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -11635,7 +11635,7 @@
         <v>195</v>
       </c>
       <c r="B305" s="2">
-        <v>264</v>
+        <v>8280</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>466</v>
@@ -11645,17 +11645,17 @@
       </c>
       <c r="E305" s="1"/>
       <c r="F305" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="H305" s="1"/>
       <c r="I305" s="1"/>
       <c r="J305" s="1"/>
       <c r="K305" s="1"/>
       <c r="L305" s="1" t="s">
-        <v>729</v>
+        <v>762</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -11841,10 +11841,10 @@
       </c>
       <c r="E312" s="1"/>
       <c r="F312" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="H312" s="1"/>
       <c r="I312" s="1"/>
@@ -11869,10 +11869,10 @@
       </c>
       <c r="E313" s="1"/>
       <c r="F313" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="H313" s="1"/>
       <c r="I313" s="1"/>
@@ -11998,7 +11998,9 @@
       <c r="A318" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B318" s="2"/>
+      <c r="B318" s="2">
+        <v>283</v>
+      </c>
       <c r="C318" s="1" t="s">
         <v>466</v>
       </c>
@@ -12007,24 +12009,24 @@
       </c>
       <c r="E318" s="1"/>
       <c r="F318" s="1" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>467</v>
+        <v>491</v>
       </c>
       <c r="H318" s="1"/>
       <c r="I318" s="1"/>
       <c r="J318" s="1"/>
       <c r="K318" s="1"/>
-      <c r="L318" s="1"/>
+      <c r="L318" s="1" t="s">
+        <v>760</v>
+      </c>
     </row>
     <row r="319" spans="1:12">
       <c r="A319" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B319" s="2">
-        <v>283</v>
-      </c>
+      <c r="B319" s="2"/>
       <c r="C319" s="1" t="s">
         <v>466</v>
       </c>
@@ -12033,18 +12035,16 @@
       </c>
       <c r="E319" s="1"/>
       <c r="F319" s="1" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="H319" s="1"/>
       <c r="I319" s="1"/>
       <c r="J319" s="1"/>
       <c r="K319" s="1"/>
-      <c r="L319" s="1" t="s">
-        <v>760</v>
-      </c>
+      <c r="L319" s="1"/>
     </row>
     <row r="320" spans="1:12">
       <c r="A320" s="1" t="s">
@@ -12079,7 +12079,7 @@
         <v>208</v>
       </c>
       <c r="B321" s="2">
-        <v>3704</v>
+        <v>5471</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>466</v>
@@ -12089,17 +12089,17 @@
       </c>
       <c r="E321" s="1"/>
       <c r="F321" s="1" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H321" s="1"/>
       <c r="I321" s="1"/>
       <c r="J321" s="1"/>
       <c r="K321" s="1"/>
       <c r="L321" s="1" t="s">
-        <v>749</v>
+        <v>796</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -12107,7 +12107,7 @@
         <v>208</v>
       </c>
       <c r="B322" s="2">
-        <v>5471</v>
+        <v>3704</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>466</v>
@@ -12117,17 +12117,17 @@
       </c>
       <c r="E322" s="1"/>
       <c r="F322" s="1" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="G322" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H322" s="1"/>
       <c r="I322" s="1"/>
       <c r="J322" s="1"/>
       <c r="K322" s="1"/>
       <c r="L322" s="1" t="s">
-        <v>796</v>
+        <v>749</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -12683,10 +12683,10 @@
       </c>
       <c r="E343" s="1"/>
       <c r="F343" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G343" s="1" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="H343" s="1"/>
       <c r="I343" s="1"/>
@@ -12711,10 +12711,10 @@
       </c>
       <c r="E344" s="1"/>
       <c r="F344" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G344" s="1" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="H344" s="1"/>
       <c r="I344" s="1"/>
@@ -12739,10 +12739,10 @@
       </c>
       <c r="E345" s="1"/>
       <c r="F345" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G345" s="1" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="H345" s="1"/>
       <c r="I345" s="1"/>
@@ -12767,10 +12767,10 @@
       </c>
       <c r="E346" s="1"/>
       <c r="F346" s="1" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="G346" s="1" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H346" s="1"/>
       <c r="I346" s="1"/>
@@ -13252,9 +13252,7 @@
       <c r="A361" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B361" s="2">
-        <v>8438</v>
-      </c>
+      <c r="B361" s="2"/>
       <c r="C361" s="1" t="s">
         <v>466</v>
       </c>
@@ -13263,24 +13261,24 @@
       </c>
       <c r="E361" s="1"/>
       <c r="F361" s="1" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G361" s="1" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="H361" s="1"/>
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
       <c r="K361" s="1"/>
-      <c r="L361" s="1" t="s">
-        <v>795</v>
-      </c>
+      <c r="L361" s="1"/>
     </row>
     <row r="362" spans="1:12">
       <c r="A362" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B362" s="2"/>
+      <c r="B362" s="2">
+        <v>8438</v>
+      </c>
       <c r="C362" s="1" t="s">
         <v>466</v>
       </c>
@@ -13289,16 +13287,18 @@
       </c>
       <c r="E362" s="1"/>
       <c r="F362" s="1" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="G362" s="1" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="H362" s="1"/>
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
       <c r="K362" s="1"/>
-      <c r="L362" s="1"/>
+      <c r="L362" s="1" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="363" spans="1:12">
       <c r="A363" s="1" t="s">
@@ -13383,10 +13383,10 @@
       </c>
       <c r="E365" s="1"/>
       <c r="F365" s="1" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="G365" s="1" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="H365" s="1" t="s">
         <v>500</v>
@@ -13419,10 +13419,10 @@
       </c>
       <c r="E366" s="1"/>
       <c r="F366" s="1" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="G366" s="1" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H366" s="1" t="s">
         <v>500</v>
@@ -13455,17 +13455,17 @@
       </c>
       <c r="E367" s="1"/>
       <c r="F367" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="G367" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="H367" s="1"/>
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
       <c r="K367" s="1"/>
       <c r="L367" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -13483,17 +13483,17 @@
       </c>
       <c r="E368" s="1"/>
       <c r="F368" s="1" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="G368" s="1" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="H368" s="1"/>
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
       <c r="K368" s="1"/>
       <c r="L368" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -13997,7 +13997,7 @@
       <c r="J384" s="1"/>
       <c r="K384" s="1"/>
       <c r="L384" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -14033,7 +14033,7 @@
         <v>686</v>
       </c>
       <c r="L385" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -14069,7 +14069,7 @@
         <v>686</v>
       </c>
       <c r="L386" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -14077,7 +14077,7 @@
         <v>259</v>
       </c>
       <c r="B387" s="2">
-        <v>9114</v>
+        <v>650</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>466</v>
@@ -14087,10 +14087,10 @@
       </c>
       <c r="E387" s="1"/>
       <c r="F387" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G387" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H387" s="1"/>
       <c r="I387" s="1"/>
@@ -14105,7 +14105,7 @@
         <v>259</v>
       </c>
       <c r="B388" s="2">
-        <v>650</v>
+        <v>9114</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>466</v>
@@ -14115,10 +14115,10 @@
       </c>
       <c r="E388" s="1"/>
       <c r="F388" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G388" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H388" s="1"/>
       <c r="I388" s="1"/>
@@ -14179,10 +14179,10 @@
       </c>
       <c r="E390" s="1"/>
       <c r="F390" s="1" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="G390" s="1" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="H390" s="1"/>
       <c r="I390" s="1"/>
@@ -14207,10 +14207,10 @@
       </c>
       <c r="E391" s="1"/>
       <c r="F391" s="1" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="G391" s="1" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H391" s="1"/>
       <c r="I391" s="1"/>
@@ -14317,7 +14317,7 @@
         <v>264</v>
       </c>
       <c r="B395" s="2">
-        <v>6384</v>
+        <v>301</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>466</v>
@@ -14337,7 +14337,7 @@
       <c r="J395" s="1"/>
       <c r="K395" s="1"/>
       <c r="L395" s="1" t="s">
-        <v>756</v>
+        <v>804</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -14345,7 +14345,7 @@
         <v>264</v>
       </c>
       <c r="B396" s="2">
-        <v>8952</v>
+        <v>2776</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>466</v>
@@ -14365,7 +14365,7 @@
       <c r="J396" s="1"/>
       <c r="K396" s="1"/>
       <c r="L396" s="1" t="s">
-        <v>806</v>
+        <v>716</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -14373,7 +14373,7 @@
         <v>264</v>
       </c>
       <c r="B397" s="2">
-        <v>301</v>
+        <v>6384</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>466</v>
@@ -14393,7 +14393,7 @@
       <c r="J397" s="1"/>
       <c r="K397" s="1"/>
       <c r="L397" s="1" t="s">
-        <v>804</v>
+        <v>756</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -14401,7 +14401,7 @@
         <v>264</v>
       </c>
       <c r="B398" s="2">
-        <v>425</v>
+        <v>8952</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>466</v>
@@ -14421,7 +14421,7 @@
       <c r="J398" s="1"/>
       <c r="K398" s="1"/>
       <c r="L398" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -14429,7 +14429,7 @@
         <v>264</v>
       </c>
       <c r="B399" s="2">
-        <v>2776</v>
+        <v>425</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>466</v>
@@ -14449,7 +14449,7 @@
       <c r="J399" s="1"/>
       <c r="K399" s="1"/>
       <c r="L399" s="1" t="s">
-        <v>716</v>
+        <v>807</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -14617,7 +14617,7 @@
         <v>269</v>
       </c>
       <c r="B405" s="2">
-        <v>332</v>
+        <v>4587</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>466</v>
@@ -14645,7 +14645,7 @@
         <v>690</v>
       </c>
       <c r="L405" s="1" t="s">
-        <v>785</v>
+        <v>800</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -14653,7 +14653,7 @@
         <v>269</v>
       </c>
       <c r="B406" s="2">
-        <v>4310</v>
+        <v>332</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>466</v>
@@ -14681,7 +14681,7 @@
         <v>690</v>
       </c>
       <c r="L406" s="1" t="s">
-        <v>742</v>
+        <v>784</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -14689,7 +14689,7 @@
         <v>269</v>
       </c>
       <c r="B407" s="2">
-        <v>4587</v>
+        <v>4310</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>466</v>
@@ -14717,7 +14717,7 @@
         <v>690</v>
       </c>
       <c r="L407" s="1" t="s">
-        <v>800</v>
+        <v>742</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -14761,7 +14761,7 @@
         <v>271</v>
       </c>
       <c r="B409" s="2">
-        <v>2939</v>
+        <v>278</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>466</v>
@@ -14780,16 +14780,14 @@
       <c r="I409" s="1"/>
       <c r="J409" s="1"/>
       <c r="K409" s="1"/>
-      <c r="L409" s="1" t="s">
-        <v>792</v>
-      </c>
+      <c r="L409" s="1"/>
     </row>
     <row r="410" spans="1:12">
       <c r="A410" s="1" t="s">
         <v>271</v>
       </c>
       <c r="B410" s="2">
-        <v>2856</v>
+        <v>3661</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>466</v>
@@ -14799,17 +14797,17 @@
       </c>
       <c r="E410" s="1"/>
       <c r="F410" s="1" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="G410" s="1" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="H410" s="1"/>
       <c r="I410" s="1"/>
       <c r="J410" s="1"/>
       <c r="K410" s="1"/>
       <c r="L410" s="1" t="s">
-        <v>715</v>
+        <v>758</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -14817,7 +14815,7 @@
         <v>271</v>
       </c>
       <c r="B411" s="2">
-        <v>280</v>
+        <v>7684</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>466</v>
@@ -14827,17 +14825,17 @@
       </c>
       <c r="E411" s="1"/>
       <c r="F411" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="G411" s="1" t="s">
-        <v>467</v>
+        <v>491</v>
       </c>
       <c r="H411" s="1"/>
       <c r="I411" s="1"/>
       <c r="J411" s="1"/>
       <c r="K411" s="1"/>
       <c r="L411" s="1" t="s">
-        <v>811</v>
+        <v>719</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -14845,7 +14843,7 @@
         <v>271</v>
       </c>
       <c r="B412" s="2">
-        <v>7723</v>
+        <v>2856</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>466</v>
@@ -14855,17 +14853,17 @@
       </c>
       <c r="E412" s="1"/>
       <c r="F412" s="1" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="G412" s="1" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="H412" s="1"/>
       <c r="I412" s="1"/>
       <c r="J412" s="1"/>
       <c r="K412" s="1"/>
       <c r="L412" s="1" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -14873,7 +14871,7 @@
         <v>271</v>
       </c>
       <c r="B413" s="2">
-        <v>3661</v>
+        <v>7723</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>466</v>
@@ -14883,17 +14881,17 @@
       </c>
       <c r="E413" s="1"/>
       <c r="F413" s="1" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="G413" s="1" t="s">
-        <v>467</v>
+        <v>493</v>
       </c>
       <c r="H413" s="1"/>
       <c r="I413" s="1"/>
       <c r="J413" s="1"/>
       <c r="K413" s="1"/>
       <c r="L413" s="1" t="s">
-        <v>758</v>
+        <v>725</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -14929,7 +14927,7 @@
         <v>271</v>
       </c>
       <c r="B415" s="2">
-        <v>7684</v>
+        <v>280</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>466</v>
@@ -14939,17 +14937,17 @@
       </c>
       <c r="E415" s="1"/>
       <c r="F415" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G415" s="1" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="H415" s="1"/>
       <c r="I415" s="1"/>
       <c r="J415" s="1"/>
       <c r="K415" s="1"/>
       <c r="L415" s="1" t="s">
-        <v>719</v>
+        <v>811</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -14957,7 +14955,7 @@
         <v>271</v>
       </c>
       <c r="B416" s="2">
-        <v>278</v>
+        <v>2939</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>466</v>
@@ -14976,13 +14974,17 @@
       <c r="I416" s="1"/>
       <c r="J416" s="1"/>
       <c r="K416" s="1"/>
-      <c r="L416" s="1"/>
+      <c r="L416" s="1" t="s">
+        <v>792</v>
+      </c>
     </row>
     <row r="417" spans="1:12">
       <c r="A417" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B417" s="2"/>
+      <c r="B417" s="2">
+        <v>3661</v>
+      </c>
       <c r="C417" s="1" t="s">
         <v>466</v>
       </c>
@@ -14991,23 +14993,25 @@
       </c>
       <c r="E417" s="1"/>
       <c r="F417" s="1" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="G417" s="1" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="H417" s="1"/>
       <c r="I417" s="1"/>
       <c r="J417" s="1"/>
       <c r="K417" s="1"/>
-      <c r="L417" s="1"/>
+      <c r="L417" s="1" t="s">
+        <v>758</v>
+      </c>
     </row>
     <row r="418" spans="1:12">
       <c r="A418" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B418" s="2">
-        <v>609</v>
+        <v>1644</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>466</v>
@@ -15017,10 +15021,10 @@
       </c>
       <c r="E418" s="1"/>
       <c r="F418" s="1" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="G418" s="1" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="H418" s="1"/>
       <c r="I418" s="1"/>
@@ -15034,9 +15038,7 @@
       <c r="A419" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B419" s="2">
-        <v>1644</v>
-      </c>
+      <c r="B419" s="2"/>
       <c r="C419" s="1" t="s">
         <v>466</v>
       </c>
@@ -15045,25 +15047,23 @@
       </c>
       <c r="E419" s="1"/>
       <c r="F419" s="1" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="G419" s="1" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="H419" s="1"/>
       <c r="I419" s="1"/>
       <c r="J419" s="1"/>
       <c r="K419" s="1"/>
-      <c r="L419" s="1" t="s">
-        <v>813</v>
-      </c>
+      <c r="L419" s="1"/>
     </row>
     <row r="420" spans="1:12">
       <c r="A420" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B420" s="2">
-        <v>3661</v>
+        <v>609</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>466</v>
@@ -15073,17 +15073,17 @@
       </c>
       <c r="E420" s="1"/>
       <c r="F420" s="1" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="G420" s="1" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="H420" s="1"/>
       <c r="I420" s="1"/>
       <c r="J420" s="1"/>
       <c r="K420" s="1"/>
       <c r="L420" s="1" t="s">
-        <v>758</v>
+        <v>813</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -15147,7 +15147,7 @@
         <v>273</v>
       </c>
       <c r="B423" s="2">
-        <v>280</v>
+        <v>8198</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>466</v>
@@ -15157,17 +15157,17 @@
       </c>
       <c r="E423" s="1"/>
       <c r="F423" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G423" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H423" s="1"/>
       <c r="I423" s="1"/>
       <c r="J423" s="1"/>
       <c r="K423" s="1"/>
       <c r="L423" s="1" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -15175,7 +15175,7 @@
         <v>273</v>
       </c>
       <c r="B424" s="2">
-        <v>8198</v>
+        <v>280</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>466</v>
@@ -15185,17 +15185,17 @@
       </c>
       <c r="E424" s="1"/>
       <c r="F424" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G424" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H424" s="1"/>
       <c r="I424" s="1"/>
       <c r="J424" s="1"/>
       <c r="K424" s="1"/>
       <c r="L424" s="1" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -15203,7 +15203,7 @@
         <v>274</v>
       </c>
       <c r="B425" s="2">
-        <v>7723</v>
+        <v>1503</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>466</v>
@@ -15213,17 +15213,17 @@
       </c>
       <c r="E425" s="1"/>
       <c r="F425" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G425" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H425" s="1"/>
       <c r="I425" s="1"/>
       <c r="J425" s="1"/>
       <c r="K425" s="1"/>
       <c r="L425" s="1" t="s">
-        <v>725</v>
+        <v>768</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -15315,7 +15315,7 @@
         <v>274</v>
       </c>
       <c r="B429" s="2">
-        <v>1503</v>
+        <v>7723</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>466</v>
@@ -15325,17 +15325,17 @@
       </c>
       <c r="E429" s="1"/>
       <c r="F429" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G429" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H429" s="1"/>
       <c r="I429" s="1"/>
       <c r="J429" s="1"/>
       <c r="K429" s="1"/>
       <c r="L429" s="1" t="s">
-        <v>768</v>
+        <v>725</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -15371,7 +15371,7 @@
         <v>276</v>
       </c>
       <c r="B431" s="2">
-        <v>283</v>
+        <v>4587</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>466</v>
@@ -15381,7 +15381,7 @@
       </c>
       <c r="E431" s="1"/>
       <c r="F431" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G431" s="1" t="s">
         <v>481</v>
@@ -15391,7 +15391,7 @@
       <c r="J431" s="1"/>
       <c r="K431" s="1"/>
       <c r="L431" s="1" t="s">
-        <v>760</v>
+        <v>800</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -15399,7 +15399,7 @@
         <v>276</v>
       </c>
       <c r="B432" s="2">
-        <v>5431</v>
+        <v>6384</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>466</v>
@@ -15409,17 +15409,17 @@
       </c>
       <c r="E432" s="1"/>
       <c r="F432" s="1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="G432" s="1" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="H432" s="1"/>
       <c r="I432" s="1"/>
       <c r="J432" s="1"/>
       <c r="K432" s="1"/>
       <c r="L432" s="1" t="s">
-        <v>730</v>
+        <v>756</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -15427,7 +15427,7 @@
         <v>276</v>
       </c>
       <c r="B433" s="2">
-        <v>6384</v>
+        <v>283</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>466</v>
@@ -15437,17 +15437,17 @@
       </c>
       <c r="E433" s="1"/>
       <c r="F433" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G433" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="H433" s="1"/>
       <c r="I433" s="1"/>
       <c r="J433" s="1"/>
       <c r="K433" s="1"/>
       <c r="L433" s="1" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -15455,7 +15455,7 @@
         <v>276</v>
       </c>
       <c r="B434" s="2">
-        <v>4587</v>
+        <v>4310</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>466</v>
@@ -15475,7 +15475,7 @@
       <c r="J434" s="1"/>
       <c r="K434" s="1"/>
       <c r="L434" s="1" t="s">
-        <v>800</v>
+        <v>742</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -15483,7 +15483,7 @@
         <v>276</v>
       </c>
       <c r="B435" s="2">
-        <v>4310</v>
+        <v>5431</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>466</v>
@@ -15503,7 +15503,7 @@
       <c r="J435" s="1"/>
       <c r="K435" s="1"/>
       <c r="L435" s="1" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -15567,7 +15567,7 @@
         <v>278</v>
       </c>
       <c r="B438" s="2">
-        <v>8036</v>
+        <v>4226</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>466</v>
@@ -15577,17 +15577,17 @@
       </c>
       <c r="E438" s="1"/>
       <c r="F438" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G438" s="1" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="H438" s="1"/>
       <c r="I438" s="1"/>
       <c r="J438" s="1"/>
       <c r="K438" s="1"/>
       <c r="L438" s="1" t="s">
-        <v>818</v>
+        <v>738</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -15595,7 +15595,7 @@
         <v>278</v>
       </c>
       <c r="B439" s="2">
-        <v>4226</v>
+        <v>8036</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>466</v>
@@ -15605,17 +15605,17 @@
       </c>
       <c r="E439" s="1"/>
       <c r="F439" s="1" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="G439" s="1" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="H439" s="1"/>
       <c r="I439" s="1"/>
       <c r="J439" s="1"/>
       <c r="K439" s="1"/>
       <c r="L439" s="1" t="s">
-        <v>738</v>
+        <v>818</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -15651,7 +15651,7 @@
         <v>280</v>
       </c>
       <c r="B441" s="2">
-        <v>1434</v>
+        <v>2214</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>466</v>
@@ -15671,7 +15671,7 @@
       <c r="J441" s="1"/>
       <c r="K441" s="1"/>
       <c r="L441" s="1" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -15679,7 +15679,7 @@
         <v>280</v>
       </c>
       <c r="B442" s="2">
-        <v>8946</v>
+        <v>1434</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>466</v>
@@ -15699,7 +15699,7 @@
       <c r="J442" s="1"/>
       <c r="K442" s="1"/>
       <c r="L442" s="1" t="s">
-        <v>819</v>
+        <v>778</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -15727,7 +15727,7 @@
       <c r="J443" s="1"/>
       <c r="K443" s="1"/>
       <c r="L443" s="1" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -15735,7 +15735,7 @@
         <v>280</v>
       </c>
       <c r="B444" s="2">
-        <v>2214</v>
+        <v>8946</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>466</v>
@@ -15763,7 +15763,7 @@
         <v>281</v>
       </c>
       <c r="B445" s="2">
-        <v>9431</v>
+        <v>3164</v>
       </c>
       <c r="C445" s="1" t="s">
         <v>466</v>
@@ -15773,17 +15773,17 @@
       </c>
       <c r="E445" s="1"/>
       <c r="F445" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G445" s="1" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="H445" s="1"/>
       <c r="I445" s="1"/>
       <c r="J445" s="1"/>
       <c r="K445" s="1"/>
       <c r="L445" s="1" t="s">
-        <v>753</v>
+        <v>717</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -15829,10 +15829,10 @@
       </c>
       <c r="E447" s="1"/>
       <c r="F447" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G447" s="1" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="H447" s="1"/>
       <c r="I447" s="1"/>
@@ -15847,7 +15847,7 @@
         <v>281</v>
       </c>
       <c r="B448" s="2">
-        <v>3164</v>
+        <v>9431</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>466</v>
@@ -15857,17 +15857,17 @@
       </c>
       <c r="E448" s="1"/>
       <c r="F448" s="1" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="G448" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H448" s="1"/>
       <c r="I448" s="1"/>
       <c r="J448" s="1"/>
       <c r="K448" s="1"/>
       <c r="L448" s="1" t="s">
-        <v>717</v>
+        <v>753</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -15907,7 +15907,7 @@
         <v>283</v>
       </c>
       <c r="B450" s="2">
-        <v>9301</v>
+        <v>7981</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>466</v>
@@ -15935,7 +15935,7 @@
         <v>654</v>
       </c>
       <c r="L450" s="1" t="s">
-        <v>727</v>
+        <v>821</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -15979,7 +15979,7 @@
         <v>283</v>
       </c>
       <c r="B452" s="2">
-        <v>7981</v>
+        <v>9301</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>466</v>
@@ -16007,7 +16007,7 @@
         <v>654</v>
       </c>
       <c r="L452" s="1" t="s">
-        <v>821</v>
+        <v>727</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -16151,7 +16151,7 @@
         <v>289</v>
       </c>
       <c r="B458" s="2">
-        <v>8740</v>
+        <v>3661</v>
       </c>
       <c r="C458" s="1" t="s">
         <v>466</v>
@@ -16161,17 +16161,17 @@
       </c>
       <c r="E458" s="1"/>
       <c r="F458" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G458" s="1" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H458" s="1"/>
       <c r="I458" s="1"/>
       <c r="J458" s="1"/>
       <c r="K458" s="1"/>
       <c r="L458" s="1" t="s">
-        <v>798</v>
+        <v>758</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -16179,7 +16179,7 @@
         <v>289</v>
       </c>
       <c r="B459" s="2">
-        <v>3661</v>
+        <v>8740</v>
       </c>
       <c r="C459" s="1" t="s">
         <v>466</v>
@@ -16189,17 +16189,17 @@
       </c>
       <c r="E459" s="1"/>
       <c r="F459" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G459" s="1" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="H459" s="1"/>
       <c r="I459" s="1"/>
       <c r="J459" s="1"/>
       <c r="K459" s="1"/>
       <c r="L459" s="1" t="s">
-        <v>758</v>
+        <v>798</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -16371,7 +16371,7 @@
         <v>294</v>
       </c>
       <c r="B465" s="2">
-        <v>6384</v>
+        <v>3528</v>
       </c>
       <c r="C465" s="1" t="s">
         <v>466</v>
@@ -16391,7 +16391,7 @@
       <c r="J465" s="1"/>
       <c r="K465" s="1"/>
       <c r="L465" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="466" spans="1:12">
@@ -16399,7 +16399,7 @@
         <v>294</v>
       </c>
       <c r="B466" s="2">
-        <v>3528</v>
+        <v>6384</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>466</v>
@@ -16419,7 +16419,7 @@
       <c r="J466" s="1"/>
       <c r="K466" s="1"/>
       <c r="L466" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -16507,7 +16507,7 @@
         <v>296</v>
       </c>
       <c r="B470" s="2">
-        <v>4472</v>
+        <v>3222</v>
       </c>
       <c r="C470" s="1" t="s">
         <v>466</v>
@@ -16517,17 +16517,17 @@
       </c>
       <c r="E470" s="1"/>
       <c r="F470" s="1" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="G470" s="1" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="H470" s="1"/>
       <c r="I470" s="1"/>
       <c r="J470" s="1"/>
       <c r="K470" s="1"/>
       <c r="L470" s="1" t="s">
-        <v>780</v>
+        <v>817</v>
       </c>
     </row>
     <row r="471" spans="1:12">
@@ -16535,7 +16535,7 @@
         <v>296</v>
       </c>
       <c r="B471" s="2">
-        <v>3452</v>
+        <v>3521</v>
       </c>
       <c r="C471" s="1" t="s">
         <v>466</v>
@@ -16545,17 +16545,17 @@
       </c>
       <c r="E471" s="1"/>
       <c r="F471" s="1" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="G471" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="H471" s="1"/>
       <c r="I471" s="1"/>
       <c r="J471" s="1"/>
       <c r="K471" s="1"/>
       <c r="L471" s="1" t="s">
-        <v>718</v>
+        <v>822</v>
       </c>
     </row>
     <row r="472" spans="1:12">
@@ -16563,7 +16563,7 @@
         <v>296</v>
       </c>
       <c r="B472" s="2">
-        <v>3222</v>
+        <v>304</v>
       </c>
       <c r="C472" s="1" t="s">
         <v>466</v>
@@ -16583,7 +16583,7 @@
       <c r="J472" s="1"/>
       <c r="K472" s="1"/>
       <c r="L472" s="1" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
     </row>
     <row r="473" spans="1:12">
@@ -16591,7 +16591,7 @@
         <v>296</v>
       </c>
       <c r="B473" s="2">
-        <v>304</v>
+        <v>3452</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>466</v>
@@ -16601,17 +16601,17 @@
       </c>
       <c r="E473" s="1"/>
       <c r="F473" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G473" s="1" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="H473" s="1"/>
       <c r="I473" s="1"/>
       <c r="J473" s="1"/>
       <c r="K473" s="1"/>
       <c r="L473" s="1" t="s">
-        <v>805</v>
+        <v>718</v>
       </c>
     </row>
     <row r="474" spans="1:12">
@@ -16619,7 +16619,7 @@
         <v>296</v>
       </c>
       <c r="B474" s="2">
-        <v>3521</v>
+        <v>4472</v>
       </c>
       <c r="C474" s="1" t="s">
         <v>466</v>
@@ -16629,17 +16629,17 @@
       </c>
       <c r="E474" s="1"/>
       <c r="F474" s="1" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G474" s="1" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="H474" s="1"/>
       <c r="I474" s="1"/>
       <c r="J474" s="1"/>
       <c r="K474" s="1"/>
       <c r="L474" s="1" t="s">
-        <v>822</v>
+        <v>780</v>
       </c>
     </row>
     <row r="475" spans="1:12">
@@ -16674,9 +16674,7 @@
       <c r="A476" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B476" s="2">
-        <v>79</v>
-      </c>
+      <c r="B476" s="2"/>
       <c r="C476" s="1" t="s">
         <v>466</v>
       </c>
@@ -16685,25 +16683,23 @@
       </c>
       <c r="E476" s="1"/>
       <c r="F476" s="1" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G476" s="1" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="H476" s="1"/>
       <c r="I476" s="1"/>
       <c r="J476" s="1"/>
       <c r="K476" s="1"/>
-      <c r="L476" s="1" t="s">
-        <v>794</v>
-      </c>
+      <c r="L476" s="1"/>
     </row>
     <row r="477" spans="1:12">
       <c r="A477" s="1" t="s">
         <v>298</v>
       </c>
       <c r="B477" s="2">
-        <v>8198</v>
+        <v>79</v>
       </c>
       <c r="C477" s="1" t="s">
         <v>466</v>
@@ -16713,24 +16709,26 @@
       </c>
       <c r="E477" s="1"/>
       <c r="F477" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G477" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H477" s="1"/>
       <c r="I477" s="1"/>
       <c r="J477" s="1"/>
       <c r="K477" s="1"/>
       <c r="L477" s="1" t="s">
-        <v>815</v>
+        <v>794</v>
       </c>
     </row>
     <row r="478" spans="1:12">
       <c r="A478" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B478" s="2"/>
+      <c r="B478" s="2">
+        <v>8198</v>
+      </c>
       <c r="C478" s="1" t="s">
         <v>466</v>
       </c>
@@ -16739,23 +16737,25 @@
       </c>
       <c r="E478" s="1"/>
       <c r="F478" s="1" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="G478" s="1" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="H478" s="1"/>
       <c r="I478" s="1"/>
       <c r="J478" s="1"/>
       <c r="K478" s="1"/>
-      <c r="L478" s="1"/>
+      <c r="L478" s="1" t="s">
+        <v>815</v>
+      </c>
     </row>
     <row r="479" spans="1:12">
       <c r="A479" s="1" t="s">
         <v>299</v>
       </c>
       <c r="B479" s="2">
-        <v>6919</v>
+        <v>2065</v>
       </c>
       <c r="C479" s="1" t="s">
         <v>466</v>
@@ -16765,17 +16765,17 @@
       </c>
       <c r="E479" s="1"/>
       <c r="F479" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G479" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H479" s="1"/>
       <c r="I479" s="1"/>
       <c r="J479" s="1"/>
       <c r="K479" s="1"/>
       <c r="L479" s="1" t="s">
-        <v>726</v>
+        <v>823</v>
       </c>
     </row>
     <row r="480" spans="1:12">
@@ -16783,7 +16783,7 @@
         <v>299</v>
       </c>
       <c r="B480" s="2">
-        <v>2065</v>
+        <v>6919</v>
       </c>
       <c r="C480" s="1" t="s">
         <v>466</v>
@@ -16793,17 +16793,17 @@
       </c>
       <c r="E480" s="1"/>
       <c r="F480" s="1" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="G480" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H480" s="1"/>
       <c r="I480" s="1"/>
       <c r="J480" s="1"/>
       <c r="K480" s="1"/>
       <c r="L480" s="1" t="s">
-        <v>823</v>
+        <v>726</v>
       </c>
     </row>
     <row r="481" spans="1:12">
@@ -16895,7 +16895,7 @@
         <v>301</v>
       </c>
       <c r="B484" s="2">
-        <v>7684</v>
+        <v>9521</v>
       </c>
       <c r="C484" s="1" t="s">
         <v>466</v>
@@ -16923,7 +16923,7 @@
         <v>694</v>
       </c>
       <c r="L484" s="1" t="s">
-        <v>719</v>
+        <v>747</v>
       </c>
     </row>
     <row r="485" spans="1:12">
@@ -16931,7 +16931,7 @@
         <v>301</v>
       </c>
       <c r="B485" s="2">
-        <v>9521</v>
+        <v>7684</v>
       </c>
       <c r="C485" s="1" t="s">
         <v>466</v>
@@ -16959,7 +16959,7 @@
         <v>694</v>
       </c>
       <c r="L485" s="1" t="s">
-        <v>747</v>
+        <v>719</v>
       </c>
     </row>
     <row r="486" spans="1:12">
@@ -17034,9 +17034,7 @@
       <c r="A488" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B488" s="2">
-        <v>3222</v>
-      </c>
+      <c r="B488" s="2"/>
       <c r="C488" s="1" t="s">
         <v>466</v>
       </c>
@@ -17045,24 +17043,24 @@
       </c>
       <c r="E488" s="1"/>
       <c r="F488" s="1" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="G488" s="1" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="H488" s="1"/>
       <c r="I488" s="1"/>
       <c r="J488" s="1"/>
       <c r="K488" s="1"/>
-      <c r="L488" s="1" t="s">
-        <v>817</v>
-      </c>
+      <c r="L488" s="1"/>
     </row>
     <row r="489" spans="1:12">
       <c r="A489" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B489" s="2"/>
+      <c r="B489" s="2">
+        <v>3222</v>
+      </c>
       <c r="C489" s="1" t="s">
         <v>466</v>
       </c>
@@ -17071,23 +17069,25 @@
       </c>
       <c r="E489" s="1"/>
       <c r="F489" s="1" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="G489" s="1" t="s">
-        <v>467</v>
+        <v>491</v>
       </c>
       <c r="H489" s="1"/>
       <c r="I489" s="1"/>
       <c r="J489" s="1"/>
       <c r="K489" s="1"/>
-      <c r="L489" s="1"/>
+      <c r="L489" s="1" t="s">
+        <v>817</v>
+      </c>
     </row>
     <row r="490" spans="1:12">
       <c r="A490" s="1" t="s">
         <v>305</v>
       </c>
       <c r="B490" s="2">
-        <v>6919</v>
+        <v>280</v>
       </c>
       <c r="C490" s="1" t="s">
         <v>466</v>
@@ -17097,17 +17097,17 @@
       </c>
       <c r="E490" s="1"/>
       <c r="F490" s="1" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G490" s="1" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="H490" s="1"/>
       <c r="I490" s="1"/>
       <c r="J490" s="1"/>
       <c r="K490" s="1"/>
       <c r="L490" s="1" t="s">
-        <v>726</v>
+        <v>811</v>
       </c>
     </row>
     <row r="491" spans="1:12">
@@ -17115,7 +17115,7 @@
         <v>305</v>
       </c>
       <c r="B491" s="2">
-        <v>280</v>
+        <v>6919</v>
       </c>
       <c r="C491" s="1" t="s">
         <v>466</v>
@@ -17125,17 +17125,17 @@
       </c>
       <c r="E491" s="1"/>
       <c r="F491" s="1" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="G491" s="1" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="H491" s="1"/>
       <c r="I491" s="1"/>
       <c r="J491" s="1"/>
       <c r="K491" s="1"/>
       <c r="L491" s="1" t="s">
-        <v>811</v>
+        <v>726</v>
       </c>
     </row>
     <row r="492" spans="1:12">
@@ -17245,10 +17245,10 @@
       </c>
       <c r="E495" s="1"/>
       <c r="F495" s="1" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="G495" s="1" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H495" s="1" t="s">
         <v>496</v>
@@ -17281,10 +17281,10 @@
       </c>
       <c r="E496" s="1"/>
       <c r="F496" s="1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="G496" s="1" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="H496" s="1" t="s">
         <v>496</v>
@@ -17611,7 +17611,7 @@
         <v>318</v>
       </c>
       <c r="B507" s="2">
-        <v>2065</v>
+        <v>4472</v>
       </c>
       <c r="C507" s="1" t="s">
         <v>466</v>
@@ -17621,17 +17621,17 @@
       </c>
       <c r="E507" s="1"/>
       <c r="F507" s="1" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="G507" s="1" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="H507" s="1"/>
       <c r="I507" s="1"/>
       <c r="J507" s="1"/>
       <c r="K507" s="1"/>
       <c r="L507" s="1" t="s">
-        <v>823</v>
+        <v>780</v>
       </c>
     </row>
     <row r="508" spans="1:12">
@@ -17639,7 +17639,7 @@
         <v>318</v>
       </c>
       <c r="B508" s="2">
-        <v>4472</v>
+        <v>2065</v>
       </c>
       <c r="C508" s="1" t="s">
         <v>466</v>
@@ -17649,17 +17649,17 @@
       </c>
       <c r="E508" s="1"/>
       <c r="F508" s="1" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="G508" s="1" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="H508" s="1"/>
       <c r="I508" s="1"/>
       <c r="J508" s="1"/>
       <c r="K508" s="1"/>
       <c r="L508" s="1" t="s">
-        <v>780</v>
+        <v>823</v>
       </c>
     </row>
     <row r="509" spans="1:12">
@@ -17743,7 +17743,7 @@
       <c r="J511" s="1"/>
       <c r="K511" s="1"/>
       <c r="L511" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="512" spans="1:12">
@@ -17817,10 +17817,10 @@
       </c>
       <c r="E514" s="1"/>
       <c r="F514" s="1" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="G514" s="1" t="s">
-        <v>467</v>
+        <v>491</v>
       </c>
       <c r="H514" s="1"/>
       <c r="I514" s="1"/>
@@ -17873,10 +17873,10 @@
       </c>
       <c r="E516" s="1"/>
       <c r="F516" s="1" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="G516" s="1" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="H516" s="1"/>
       <c r="I516" s="1"/>
@@ -17939,7 +17939,7 @@
       <c r="J518" s="1"/>
       <c r="K518" s="1"/>
       <c r="L518" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="519" spans="1:12">
@@ -18179,7 +18179,7 @@
         <v>702</v>
       </c>
       <c r="L526" s="1" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
     </row>
     <row r="527" spans="1:12">
@@ -18187,7 +18187,7 @@
         <v>334</v>
       </c>
       <c r="B527" s="2">
-        <v>2855</v>
+        <v>2856</v>
       </c>
       <c r="C527" s="1" t="s">
         <v>466</v>
@@ -18207,7 +18207,7 @@
       <c r="J527" s="1"/>
       <c r="K527" s="1"/>
       <c r="L527" s="1" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
     </row>
     <row r="528" spans="1:12">
@@ -18215,7 +18215,7 @@
         <v>334</v>
       </c>
       <c r="B528" s="2">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="C528" s="1" t="s">
         <v>466</v>
@@ -18235,7 +18235,7 @@
       <c r="J528" s="1"/>
       <c r="K528" s="1"/>
       <c r="L528" s="1" t="s">
-        <v>715</v>
+        <v>731</v>
       </c>
     </row>
     <row r="529" spans="1:12">
@@ -18411,7 +18411,7 @@
       <c r="J534" s="1"/>
       <c r="K534" s="1"/>
       <c r="L534" s="1" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
     </row>
     <row r="535" spans="1:12">
@@ -18483,7 +18483,7 @@
         <v>341</v>
       </c>
       <c r="B537" s="2">
-        <v>9441</v>
+        <v>7015</v>
       </c>
       <c r="C537" s="1" t="s">
         <v>466</v>
@@ -18519,7 +18519,7 @@
         <v>341</v>
       </c>
       <c r="B538" s="2">
-        <v>7015</v>
+        <v>9441</v>
       </c>
       <c r="C538" s="1" t="s">
         <v>466</v>
@@ -18583,7 +18583,7 @@
         <v>343</v>
       </c>
       <c r="B540" s="2">
-        <v>550</v>
+        <v>921</v>
       </c>
       <c r="C540" s="1" t="s">
         <v>466</v>
@@ -18611,7 +18611,7 @@
         <v>343</v>
       </c>
       <c r="B541" s="2">
-        <v>921</v>
+        <v>550</v>
       </c>
       <c r="C541" s="1" t="s">
         <v>466</v>
@@ -18667,7 +18667,7 @@
         <v>704</v>
       </c>
       <c r="L542" s="1" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
     </row>
     <row r="543" spans="1:12">
@@ -18703,7 +18703,7 @@
         <v>346</v>
       </c>
       <c r="B544" s="2">
-        <v>2856</v>
+        <v>429</v>
       </c>
       <c r="C544" s="1" t="s">
         <v>466</v>
@@ -18731,7 +18731,7 @@
         <v>705</v>
       </c>
       <c r="L544" s="1" t="s">
-        <v>715</v>
+        <v>739</v>
       </c>
     </row>
     <row r="545" spans="1:12">
@@ -18739,7 +18739,7 @@
         <v>346</v>
       </c>
       <c r="B545" s="2">
-        <v>4310</v>
+        <v>4117</v>
       </c>
       <c r="C545" s="1" t="s">
         <v>466</v>
@@ -18767,7 +18767,7 @@
         <v>705</v>
       </c>
       <c r="L545" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="546" spans="1:12">
@@ -18775,7 +18775,7 @@
         <v>346</v>
       </c>
       <c r="B546" s="2">
-        <v>429</v>
+        <v>4310</v>
       </c>
       <c r="C546" s="1" t="s">
         <v>466</v>
@@ -18803,7 +18803,7 @@
         <v>705</v>
       </c>
       <c r="L546" s="1" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
     </row>
     <row r="547" spans="1:12">
@@ -18811,7 +18811,7 @@
         <v>346</v>
       </c>
       <c r="B547" s="2">
-        <v>4117</v>
+        <v>2856</v>
       </c>
       <c r="C547" s="1" t="s">
         <v>466</v>
@@ -18839,7 +18839,7 @@
         <v>705</v>
       </c>
       <c r="L547" s="1" t="s">
-        <v>741</v>
+        <v>715</v>
       </c>
     </row>
     <row r="548" spans="1:12">
@@ -18847,7 +18847,7 @@
         <v>347</v>
       </c>
       <c r="B548" s="2">
-        <v>429</v>
+        <v>2065</v>
       </c>
       <c r="C548" s="1" t="s">
         <v>466</v>
@@ -18867,7 +18867,7 @@
       <c r="J548" s="1"/>
       <c r="K548" s="1"/>
       <c r="L548" s="1" t="s">
-        <v>739</v>
+        <v>823</v>
       </c>
     </row>
     <row r="549" spans="1:12">
@@ -18875,7 +18875,7 @@
         <v>347</v>
       </c>
       <c r="B549" s="2">
-        <v>2065</v>
+        <v>429</v>
       </c>
       <c r="C549" s="1" t="s">
         <v>466</v>
@@ -18895,7 +18895,7 @@
       <c r="J549" s="1"/>
       <c r="K549" s="1"/>
       <c r="L549" s="1" t="s">
-        <v>823</v>
+        <v>739</v>
       </c>
     </row>
     <row r="550" spans="1:12">
@@ -18979,7 +18979,7 @@
       <c r="J552" s="1"/>
       <c r="K552" s="1"/>
       <c r="L552" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="553" spans="1:12">
@@ -19015,7 +19015,7 @@
         <v>351</v>
       </c>
       <c r="B554" s="2">
-        <v>280</v>
+        <v>2384</v>
       </c>
       <c r="C554" s="1" t="s">
         <v>466</v>
@@ -19035,7 +19035,7 @@
       <c r="J554" s="1"/>
       <c r="K554" s="1"/>
       <c r="L554" s="1" t="s">
-        <v>811</v>
+        <v>776</v>
       </c>
     </row>
     <row r="555" spans="1:12">
@@ -19043,7 +19043,7 @@
         <v>351</v>
       </c>
       <c r="B555" s="2">
-        <v>2384</v>
+        <v>280</v>
       </c>
       <c r="C555" s="1" t="s">
         <v>466</v>
@@ -19063,7 +19063,7 @@
       <c r="J555" s="1"/>
       <c r="K555" s="1"/>
       <c r="L555" s="1" t="s">
-        <v>776</v>
+        <v>811</v>
       </c>
     </row>
     <row r="556" spans="1:12">
@@ -19099,7 +19099,7 @@
         <v>353</v>
       </c>
       <c r="B557" s="2">
-        <v>280</v>
+        <v>2384</v>
       </c>
       <c r="C557" s="1" t="s">
         <v>466</v>
@@ -19119,7 +19119,7 @@
       <c r="J557" s="1"/>
       <c r="K557" s="1"/>
       <c r="L557" s="1" t="s">
-        <v>811</v>
+        <v>776</v>
       </c>
     </row>
     <row r="558" spans="1:12">
@@ -19127,7 +19127,7 @@
         <v>353</v>
       </c>
       <c r="B558" s="2">
-        <v>4680</v>
+        <v>280</v>
       </c>
       <c r="C558" s="1" t="s">
         <v>466</v>
@@ -19147,7 +19147,7 @@
       <c r="J558" s="1"/>
       <c r="K558" s="1"/>
       <c r="L558" s="1" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="559" spans="1:12">
@@ -19155,7 +19155,7 @@
         <v>353</v>
       </c>
       <c r="B559" s="2">
-        <v>332</v>
+        <v>4310</v>
       </c>
       <c r="C559" s="1" t="s">
         <v>466</v>
@@ -19175,7 +19175,7 @@
       <c r="J559" s="1"/>
       <c r="K559" s="1"/>
       <c r="L559" s="1" t="s">
-        <v>785</v>
+        <v>742</v>
       </c>
     </row>
     <row r="560" spans="1:12">
@@ -19183,7 +19183,7 @@
         <v>353</v>
       </c>
       <c r="B560" s="2">
-        <v>4310</v>
+        <v>4680</v>
       </c>
       <c r="C560" s="1" t="s">
         <v>466</v>
@@ -19203,7 +19203,7 @@
       <c r="J560" s="1"/>
       <c r="K560" s="1"/>
       <c r="L560" s="1" t="s">
-        <v>742</v>
+        <v>814</v>
       </c>
     </row>
     <row r="561" spans="1:12">
@@ -19211,7 +19211,7 @@
         <v>353</v>
       </c>
       <c r="B561" s="2">
-        <v>2384</v>
+        <v>332</v>
       </c>
       <c r="C561" s="1" t="s">
         <v>466</v>
@@ -19231,7 +19231,7 @@
       <c r="J561" s="1"/>
       <c r="K561" s="1"/>
       <c r="L561" s="1" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
     </row>
     <row r="562" spans="1:12">
@@ -19351,7 +19351,7 @@
         <v>358</v>
       </c>
       <c r="B566" s="2">
-        <v>2220</v>
+        <v>449</v>
       </c>
       <c r="C566" s="1" t="s">
         <v>466</v>
@@ -19371,7 +19371,7 @@
       <c r="J566" s="1"/>
       <c r="K566" s="1"/>
       <c r="L566" s="1" t="s">
-        <v>772</v>
+        <v>713</v>
       </c>
     </row>
     <row r="567" spans="1:12">
@@ -19379,7 +19379,7 @@
         <v>358</v>
       </c>
       <c r="B567" s="2">
-        <v>449</v>
+        <v>2220</v>
       </c>
       <c r="C567" s="1" t="s">
         <v>466</v>
@@ -19399,7 +19399,7 @@
       <c r="J567" s="1"/>
       <c r="K567" s="1"/>
       <c r="L567" s="1" t="s">
-        <v>713</v>
+        <v>772</v>
       </c>
     </row>
     <row r="568" spans="1:12">
@@ -19495,7 +19495,7 @@
       <c r="J570" s="1"/>
       <c r="K570" s="1"/>
       <c r="L570" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="571" spans="1:12">
@@ -19527,7 +19527,7 @@
       <c r="J571" s="1"/>
       <c r="K571" s="1"/>
       <c r="L571" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="572" spans="1:12">
@@ -19563,7 +19563,7 @@
         <v>668</v>
       </c>
       <c r="L572" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="573" spans="1:12">
@@ -19599,7 +19599,7 @@
         <v>686</v>
       </c>
       <c r="L573" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="574" spans="1:12">
@@ -19627,7 +19627,7 @@
       <c r="J574" s="1"/>
       <c r="K574" s="1"/>
       <c r="L574" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="575" spans="1:12">
@@ -19655,7 +19655,7 @@
       <c r="J575" s="1"/>
       <c r="K575" s="1"/>
       <c r="L575" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="576" spans="1:12">
@@ -19663,7 +19663,7 @@
         <v>366</v>
       </c>
       <c r="B576" s="2">
-        <v>835</v>
+        <v>301</v>
       </c>
       <c r="C576" s="1" t="s">
         <v>466</v>
@@ -19673,17 +19673,17 @@
       </c>
       <c r="E576" s="1"/>
       <c r="F576" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G576" s="1" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="H576" s="1"/>
       <c r="I576" s="1"/>
       <c r="J576" s="1"/>
       <c r="K576" s="1"/>
       <c r="L576" s="1" t="s">
-        <v>836</v>
+        <v>804</v>
       </c>
     </row>
     <row r="577" spans="1:12">
@@ -19691,7 +19691,7 @@
         <v>366</v>
       </c>
       <c r="B577" s="2">
-        <v>301</v>
+        <v>835</v>
       </c>
       <c r="C577" s="1" t="s">
         <v>466</v>
@@ -19701,17 +19701,17 @@
       </c>
       <c r="E577" s="1"/>
       <c r="F577" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G577" s="1" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="H577" s="1"/>
       <c r="I577" s="1"/>
       <c r="J577" s="1"/>
       <c r="K577" s="1"/>
       <c r="L577" s="1" t="s">
-        <v>804</v>
+        <v>836</v>
       </c>
     </row>
     <row r="578" spans="1:12">
@@ -19757,10 +19757,10 @@
       </c>
       <c r="E579" s="1"/>
       <c r="F579" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G579" s="1" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="H579" s="1" t="s">
         <v>499</v>
@@ -19793,10 +19793,10 @@
       </c>
       <c r="E580" s="1"/>
       <c r="F580" s="1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="G580" s="1" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="H580" s="1" t="s">
         <v>499</v>
@@ -20187,7 +20187,7 @@
         <v>379</v>
       </c>
       <c r="B594" s="2">
-        <v>2939</v>
+        <v>9500</v>
       </c>
       <c r="C594" s="1" t="s">
         <v>466</v>
@@ -20206,16 +20206,14 @@
       <c r="I594" s="1"/>
       <c r="J594" s="1"/>
       <c r="K594" s="1"/>
-      <c r="L594" s="1" t="s">
-        <v>792</v>
-      </c>
+      <c r="L594" s="1"/>
     </row>
     <row r="595" spans="1:12">
       <c r="A595" s="1" t="s">
         <v>379</v>
       </c>
       <c r="B595" s="2">
-        <v>9500</v>
+        <v>2939</v>
       </c>
       <c r="C595" s="1" t="s">
         <v>466</v>
@@ -20234,7 +20232,9 @@
       <c r="I595" s="1"/>
       <c r="J595" s="1"/>
       <c r="K595" s="1"/>
-      <c r="L595" s="1"/>
+      <c r="L595" s="1" t="s">
+        <v>792</v>
+      </c>
     </row>
     <row r="596" spans="1:12">
       <c r="A596" s="1" t="s">
@@ -20546,7 +20546,9 @@
       <c r="A607" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B607" s="2"/>
+      <c r="B607" s="2">
+        <v>5471</v>
+      </c>
       <c r="C607" s="1" t="s">
         <v>466</v>
       </c>
@@ -20555,24 +20557,24 @@
       </c>
       <c r="E607" s="1"/>
       <c r="F607" s="1" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="G607" s="1" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="H607" s="1"/>
       <c r="I607" s="1"/>
       <c r="J607" s="1"/>
       <c r="K607" s="1"/>
-      <c r="L607" s="1"/>
+      <c r="L607" s="1" t="s">
+        <v>796</v>
+      </c>
     </row>
     <row r="608" spans="1:12">
       <c r="A608" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B608" s="2">
-        <v>5471</v>
-      </c>
+      <c r="B608" s="2"/>
       <c r="C608" s="1" t="s">
         <v>466</v>
       </c>
@@ -20581,18 +20583,16 @@
       </c>
       <c r="E608" s="1"/>
       <c r="F608" s="1" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G608" s="1" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="H608" s="1"/>
       <c r="I608" s="1"/>
       <c r="J608" s="1"/>
       <c r="K608" s="1"/>
-      <c r="L608" s="1" t="s">
-        <v>796</v>
-      </c>
+      <c r="L608" s="1"/>
     </row>
     <row r="609" spans="1:12">
       <c r="A609" s="1" t="s">
@@ -20655,7 +20655,7 @@
         <v>387</v>
       </c>
       <c r="B611" s="2">
-        <v>5275</v>
+        <v>1064</v>
       </c>
       <c r="C611" s="1" t="s">
         <v>466</v>
@@ -20665,16 +20665,18 @@
       </c>
       <c r="E611" s="1"/>
       <c r="F611" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G611" s="1" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="H611" s="1"/>
       <c r="I611" s="1"/>
       <c r="J611" s="1"/>
       <c r="K611" s="1"/>
-      <c r="L611" s="1"/>
+      <c r="L611" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="612" spans="1:12">
       <c r="A612" s="1" t="s">
@@ -20709,7 +20711,7 @@
         <v>387</v>
       </c>
       <c r="B613" s="2">
-        <v>1064</v>
+        <v>5275</v>
       </c>
       <c r="C613" s="1" t="s">
         <v>466</v>
@@ -20719,18 +20721,16 @@
       </c>
       <c r="E613" s="1"/>
       <c r="F613" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G613" s="1" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H613" s="1"/>
       <c r="I613" s="1"/>
       <c r="J613" s="1"/>
       <c r="K613" s="1"/>
-      <c r="L613" s="1" t="s">
-        <v>740</v>
-      </c>
+      <c r="L613" s="1"/>
     </row>
     <row r="614" spans="1:12">
       <c r="A614" s="1" t="s">
@@ -20792,9 +20792,7 @@
       <c r="A616" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B616" s="2">
-        <v>8419</v>
-      </c>
+      <c r="B616" s="2"/>
       <c r="C616" s="1" t="s">
         <v>466</v>
       </c>
@@ -20803,24 +20801,24 @@
       </c>
       <c r="E616" s="1"/>
       <c r="F616" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G616" s="1" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
       <c r="H616" s="1"/>
       <c r="I616" s="1"/>
       <c r="J616" s="1"/>
       <c r="K616" s="1"/>
-      <c r="L616" s="1" t="s">
-        <v>751</v>
-      </c>
+      <c r="L616" s="1"/>
     </row>
     <row r="617" spans="1:12">
       <c r="A617" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B617" s="2"/>
+      <c r="B617" s="2">
+        <v>8419</v>
+      </c>
       <c r="C617" s="1" t="s">
         <v>466</v>
       </c>
@@ -20829,16 +20827,18 @@
       </c>
       <c r="E617" s="1"/>
       <c r="F617" s="1" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G617" s="1" t="s">
-        <v>467</v>
+        <v>488</v>
       </c>
       <c r="H617" s="1"/>
       <c r="I617" s="1"/>
       <c r="J617" s="1"/>
       <c r="K617" s="1"/>
-      <c r="L617" s="1"/>
+      <c r="L617" s="1" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="618" spans="1:12">
       <c r="A618" s="1" t="s">
@@ -21294,9 +21294,7 @@
       <c r="A632" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B632" s="2">
-        <v>283</v>
-      </c>
+      <c r="B632" s="2"/>
       <c r="C632" s="1" t="s">
         <v>466</v>
       </c>
@@ -21314,9 +21312,7 @@
       <c r="I632" s="1"/>
       <c r="J632" s="1"/>
       <c r="K632" s="1"/>
-      <c r="L632" s="1" t="s">
-        <v>760</v>
-      </c>
+      <c r="L632" s="1"/>
     </row>
     <row r="633" spans="1:12">
       <c r="A633" s="1" t="s">
@@ -21350,7 +21346,9 @@
       <c r="A634" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B634" s="2"/>
+      <c r="B634" s="2">
+        <v>283</v>
+      </c>
       <c r="C634" s="1" t="s">
         <v>466</v>
       </c>
@@ -21368,7 +21366,9 @@
       <c r="I634" s="1"/>
       <c r="J634" s="1"/>
       <c r="K634" s="1"/>
-      <c r="L634" s="1"/>
+      <c r="L634" s="1" t="s">
+        <v>760</v>
+      </c>
     </row>
     <row r="635" spans="1:12">
       <c r="A635" s="1" t="s">
@@ -21703,7 +21703,7 @@
         <v>413</v>
       </c>
       <c r="B646" s="2">
-        <v>8952</v>
+        <v>8744</v>
       </c>
       <c r="C646" s="1" t="s">
         <v>466</v>
@@ -21723,7 +21723,7 @@
       <c r="J646" s="1"/>
       <c r="K646" s="1"/>
       <c r="L646" s="1" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
     </row>
     <row r="647" spans="1:12">
@@ -21731,7 +21731,7 @@
         <v>413</v>
       </c>
       <c r="B647" s="2">
-        <v>301</v>
+        <v>8952</v>
       </c>
       <c r="C647" s="1" t="s">
         <v>466</v>
@@ -21751,7 +21751,7 @@
       <c r="J647" s="1"/>
       <c r="K647" s="1"/>
       <c r="L647" s="1" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="648" spans="1:12">
@@ -21787,7 +21787,7 @@
         <v>413</v>
       </c>
       <c r="B649" s="2">
-        <v>8744</v>
+        <v>2776</v>
       </c>
       <c r="C649" s="1" t="s">
         <v>466</v>
@@ -21807,7 +21807,7 @@
       <c r="J649" s="1"/>
       <c r="K649" s="1"/>
       <c r="L649" s="1" t="s">
-        <v>799</v>
+        <v>716</v>
       </c>
     </row>
     <row r="650" spans="1:12">
@@ -21815,7 +21815,7 @@
         <v>413</v>
       </c>
       <c r="B650" s="2">
-        <v>425</v>
+        <v>301</v>
       </c>
       <c r="C650" s="1" t="s">
         <v>466</v>
@@ -21835,7 +21835,7 @@
       <c r="J650" s="1"/>
       <c r="K650" s="1"/>
       <c r="L650" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="651" spans="1:12">
@@ -21843,7 +21843,7 @@
         <v>413</v>
       </c>
       <c r="B651" s="2">
-        <v>2776</v>
+        <v>425</v>
       </c>
       <c r="C651" s="1" t="s">
         <v>466</v>
@@ -21863,7 +21863,7 @@
       <c r="J651" s="1"/>
       <c r="K651" s="1"/>
       <c r="L651" s="1" t="s">
-        <v>716</v>
+        <v>807</v>
       </c>
     </row>
     <row r="652" spans="1:12">
@@ -21899,7 +21899,7 @@
         <v>414</v>
       </c>
       <c r="B653" s="2">
-        <v>301</v>
+        <v>3704</v>
       </c>
       <c r="C653" s="1" t="s">
         <v>466</v>
@@ -21919,7 +21919,7 @@
       <c r="J653" s="1"/>
       <c r="K653" s="1"/>
       <c r="L653" s="1" t="s">
-        <v>804</v>
+        <v>749</v>
       </c>
     </row>
     <row r="654" spans="1:12">
@@ -21927,7 +21927,7 @@
         <v>414</v>
       </c>
       <c r="B654" s="2">
-        <v>2776</v>
+        <v>301</v>
       </c>
       <c r="C654" s="1" t="s">
         <v>466</v>
@@ -21947,7 +21947,7 @@
       <c r="J654" s="1"/>
       <c r="K654" s="1"/>
       <c r="L654" s="1" t="s">
-        <v>716</v>
+        <v>804</v>
       </c>
     </row>
     <row r="655" spans="1:12">
@@ -21955,7 +21955,7 @@
         <v>414</v>
       </c>
       <c r="B655" s="2">
-        <v>425</v>
+        <v>2776</v>
       </c>
       <c r="C655" s="1" t="s">
         <v>466</v>
@@ -21975,7 +21975,7 @@
       <c r="J655" s="1"/>
       <c r="K655" s="1"/>
       <c r="L655" s="1" t="s">
-        <v>807</v>
+        <v>716</v>
       </c>
     </row>
     <row r="656" spans="1:12">
@@ -21983,7 +21983,7 @@
         <v>414</v>
       </c>
       <c r="B656" s="2">
-        <v>3704</v>
+        <v>425</v>
       </c>
       <c r="C656" s="1" t="s">
         <v>466</v>
@@ -22003,7 +22003,7 @@
       <c r="J656" s="1"/>
       <c r="K656" s="1"/>
       <c r="L656" s="1" t="s">
-        <v>749</v>
+        <v>807</v>
       </c>
     </row>
     <row r="657" spans="1:12">
@@ -22038,9 +22038,7 @@
       <c r="A658" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B658" s="2">
-        <v>6384</v>
-      </c>
+      <c r="B658" s="2"/>
       <c r="C658" s="1" t="s">
         <v>466</v>
       </c>
@@ -22058,15 +22056,15 @@
       <c r="I658" s="1"/>
       <c r="J658" s="1"/>
       <c r="K658" s="1"/>
-      <c r="L658" s="1" t="s">
-        <v>756</v>
-      </c>
+      <c r="L658" s="1"/>
     </row>
     <row r="659" spans="1:12">
       <c r="A659" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B659" s="2"/>
+      <c r="B659" s="2">
+        <v>301</v>
+      </c>
       <c r="C659" s="1" t="s">
         <v>466</v>
       </c>
@@ -22084,7 +22082,9 @@
       <c r="I659" s="1"/>
       <c r="J659" s="1"/>
       <c r="K659" s="1"/>
-      <c r="L659" s="1"/>
+      <c r="L659" s="1" t="s">
+        <v>804</v>
+      </c>
     </row>
     <row r="660" spans="1:12">
       <c r="A660" s="1" t="s">
@@ -22119,7 +22119,7 @@
         <v>415</v>
       </c>
       <c r="B661" s="2">
-        <v>301</v>
+        <v>6384</v>
       </c>
       <c r="C661" s="1" t="s">
         <v>466</v>
@@ -22139,7 +22139,7 @@
       <c r="J661" s="1"/>
       <c r="K661" s="1"/>
       <c r="L661" s="1" t="s">
-        <v>804</v>
+        <v>756</v>
       </c>
     </row>
     <row r="662" spans="1:12">
@@ -22195,7 +22195,7 @@
       <c r="J663" s="1"/>
       <c r="K663" s="1"/>
       <c r="L663" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="664" spans="1:12">
@@ -23399,7 +23399,7 @@
         <v>668</v>
       </c>
       <c r="L710" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="711" spans="1:12">

--- a/results/cviceni_bez_cvicich.xlsx
+++ b/results/cviceni_bez_cvicich.xlsx
@@ -580,18 +580,18 @@
     <t>30.11.2023</t>
   </si>
   <si>
+    <t>9.5.2024</t>
+  </si>
+  <si>
+    <t>21.3.2024</t>
+  </si>
+  <si>
     <t>2.5.2024</t>
   </si>
   <si>
-    <t>9.5.2024</t>
-  </si>
-  <si>
     <t>22.2.2024</t>
   </si>
   <si>
-    <t>21.3.2024</t>
-  </si>
-  <si>
     <t>19.2.2024</t>
   </si>
   <si>
@@ -628,24 +628,24 @@
     <t>13.4.2024</t>
   </si>
   <si>
+    <t>30.3.2024</t>
+  </si>
+  <si>
     <t>27.4.2024</t>
   </si>
   <si>
-    <t>30.3.2024</t>
-  </si>
-  <si>
     <t>22.12.2023</t>
   </si>
   <si>
     <t>15.12.2023</t>
   </si>
   <si>
+    <t>9.12.2023</t>
+  </si>
+  <si>
     <t>3.12.2023</t>
   </si>
   <si>
-    <t>9.12.2023</t>
-  </si>
-  <si>
     <t>6.1.2024</t>
   </si>
   <si>
@@ -673,15 +673,15 @@
     <t>14.10.2023</t>
   </si>
   <si>
+    <t>8.10.2023</t>
+  </si>
+  <si>
+    <t>17.12.2023</t>
+  </si>
+  <si>
     <t>19.11.2023</t>
   </si>
   <si>
-    <t>8.10.2023</t>
-  </si>
-  <si>
-    <t>17.12.2023</t>
-  </si>
-  <si>
     <t>11.5.2024</t>
   </si>
   <si>
@@ -697,12 +697,12 @@
     <t>29.2.2024</t>
   </si>
   <si>
+    <t>9.3.2024</t>
+  </si>
+  <si>
     <t>16.3.2024</t>
   </si>
   <si>
-    <t>9.3.2024</t>
-  </si>
-  <si>
     <t>24.3.2024</t>
   </si>
   <si>
@@ -712,12 +712,12 @@
     <t>3.5.2024</t>
   </si>
   <si>
+    <t>25.11.2023</t>
+  </si>
+  <si>
     <t>5.11.2023</t>
   </si>
   <si>
-    <t>25.11.2023</t>
-  </si>
-  <si>
     <t>5.5.2024</t>
   </si>
   <si>
@@ -736,45 +736,45 @@
     <t>4.1.2024</t>
   </si>
   <si>
+    <t>26.10.2023</t>
+  </si>
+  <si>
+    <t>2.11.2023</t>
+  </si>
+  <si>
     <t>23.11.2023</t>
   </si>
   <si>
-    <t>26.10.2023</t>
-  </si>
-  <si>
-    <t>2.11.2023</t>
-  </si>
-  <si>
     <t>12.10.2023</t>
   </si>
   <si>
+    <t>25.4.2024</t>
+  </si>
+  <si>
+    <t>7.3.2024</t>
+  </si>
+  <si>
+    <t>4.4.2024</t>
+  </si>
+  <si>
     <t>28.3.2024</t>
   </si>
   <si>
-    <t>25.4.2024</t>
-  </si>
-  <si>
     <t>18.4.2024</t>
   </si>
   <si>
-    <t>4.4.2024</t>
-  </si>
-  <si>
-    <t>7.3.2024</t>
-  </si>
-  <si>
     <t>15.5.2024</t>
   </si>
   <si>
     <t>3.1.2024</t>
   </si>
   <si>
+    <t>13.5.2024</t>
+  </si>
+  <si>
     <t>16.5.2024</t>
   </si>
   <si>
-    <t>13.5.2024</t>
-  </si>
-  <si>
     <t>14.5.2024</t>
   </si>
   <si>
@@ -1099,18 +1099,18 @@
     <t>Teorie a koncepty rurální geografie</t>
   </si>
   <si>
+    <t>Metody a aplikace historické geografie</t>
+  </si>
+  <si>
     <t>Odborná angličtina Nmgr.</t>
   </si>
   <si>
-    <t>Metody a aplikace historické geografie</t>
+    <t>Kulturní krajiny Česka</t>
   </si>
   <si>
     <t>Chemické inženýrství Nmgr.</t>
   </si>
   <si>
-    <t>Kulturní krajiny Česka</t>
-  </si>
-  <si>
     <t>Syntéza, izolace a charakterizace látek</t>
   </si>
   <si>
@@ -1126,12 +1126,12 @@
     <t>Didaktika geografie II</t>
   </si>
   <si>
+    <t>Urbánní environmentalistika</t>
+  </si>
+  <si>
     <t>Poč. modelování spojitých soustav III</t>
   </si>
   <si>
-    <t>Urbánní environmentalistika</t>
-  </si>
-  <si>
     <t>Diplomový seminář I</t>
   </si>
   <si>
@@ -1660,27 +1660,27 @@
     <t>Bartůněk Martin, Mgr.</t>
   </si>
   <si>
+    <t>Havlica Jaromír, doc. Ing. Ph.D.</t>
+  </si>
+  <si>
+    <t>Nezbeda Ivo, prof. RNDr. DrSc.</t>
+  </si>
+  <si>
     <t>Šícha Václav, RNDr. Ph.D.</t>
   </si>
   <si>
     <t>Vrtoch Ľuboš, RNDr. PhD., Ph.D.</t>
   </si>
   <si>
-    <t>Havlica Jaromír, doc. Ing. Ph.D.</t>
-  </si>
-  <si>
     <t>Nguyen Thi Thu Huong, RNDr. Ph.D.</t>
   </si>
   <si>
-    <t>Nezbeda Ivo, prof. RNDr. DrSc.</t>
+    <t>Vaverka Lukáš, Mgr.</t>
   </si>
   <si>
     <t>Dužeková Radka, Mgr.</t>
   </si>
   <si>
-    <t>Vaverka Lukáš, Mgr.</t>
-  </si>
-  <si>
     <t>Šmíd Ondřej, Mgr.</t>
   </si>
   <si>
@@ -1732,12 +1732,12 @@
     <t>Krejčí Jan, RNDr. Ph.D.</t>
   </si>
   <si>
+    <t>Babichev Sergii, prof. CSc., DSc.</t>
+  </si>
+  <si>
     <t>Beránek Pavel, Ing. Mgr.</t>
   </si>
   <si>
-    <t>Babichev Sergii, prof. CSc., DSc.</t>
-  </si>
-  <si>
     <t>Škvára Jiří, RNDr. Ph.D.</t>
   </si>
   <si>
@@ -1828,13 +1828,13 @@
     <t>Jirsák Jan, doc. RNDr. Ph.D.</t>
   </si>
   <si>
+    <t>Oravová Lucie, Ing. Ph.D.</t>
+  </si>
+  <si>
     <t>Kuráň Pavel, doc. Dr. Ing.</t>
   </si>
   <si>
     <t>Barchánková Ivana, Ing. Ph.D.</t>
-  </si>
-  <si>
-    <t>Oravová Lucie, Ing. Ph.D.</t>
   </si>
   <si>
     <t>Janoš Pavel, prof. Ing. CSc.</t>
@@ -2655,13 +2655,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="2">
-        <v>8819</v>
+        <v>9301</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>181</v>
@@ -2670,42 +2670,42 @@
         <v>2023</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>196</v>
+        <v>249</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>273</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="2">
-        <v>9301</v>
+        <v>8819</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>181</v>
@@ -2714,31 +2714,31 @@
         <v>2023</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>249</v>
+        <v>196</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>273</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2793,7 +2793,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>4310</v>
+        <v>1803</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>181</v>
@@ -2837,7 +2837,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="2">
-        <v>4117</v>
+        <v>305</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>181</v>
@@ -2846,10 +2846,10 @@
         <v>2023</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>261</v>
@@ -2881,7 +2881,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="2">
-        <v>1803</v>
+        <v>7723</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>181</v>
@@ -2890,10 +2890,10 @@
         <v>2023</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>261</v>
@@ -2914,7 +2914,7 @@
         <v>477</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2925,7 +2925,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="2">
-        <v>7723</v>
+        <v>4310</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>181</v>
@@ -2934,10 +2934,10 @@
         <v>2023</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>261</v>
@@ -2958,7 +2958,7 @@
         <v>477</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2969,7 +2969,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="2">
-        <v>429</v>
+        <v>4117</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>181</v>
@@ -3013,7 +3013,7 @@
         <v>28</v>
       </c>
       <c r="C19" s="2">
-        <v>305</v>
+        <v>429</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>181</v>
@@ -3066,10 +3066,10 @@
         <v>2023</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>261</v>
@@ -3101,7 +3101,7 @@
         <v>29</v>
       </c>
       <c r="C21" s="2">
-        <v>9245</v>
+        <v>9521</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>181</v>
@@ -3110,7 +3110,7 @@
         <v>2023</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>251</v>
@@ -3154,10 +3154,10 @@
         <v>2023</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>266</v>
@@ -3178,7 +3178,7 @@
         <v>478</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -3198,16 +3198,16 @@
         <v>2023</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>14</v>
@@ -3222,7 +3222,7 @@
         <v>478</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -3233,7 +3233,7 @@
         <v>29</v>
       </c>
       <c r="C24" s="2">
-        <v>9521</v>
+        <v>9245</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>181</v>
@@ -3242,16 +3242,16 @@
         <v>2023</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>14</v>
@@ -3310,7 +3310,7 @@
         <v>478</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -3336,10 +3336,10 @@
         <v>253</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>14</v>
@@ -3354,7 +3354,7 @@
         <v>479</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -3380,10 +3380,10 @@
         <v>253</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>14</v>
@@ -3398,7 +3398,7 @@
         <v>479</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -3421,7 +3421,7 @@
         <v>192</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>263</v>
@@ -3462,16 +3462,16 @@
         <v>2023</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>14</v>
@@ -3497,7 +3497,7 @@
         <v>32</v>
       </c>
       <c r="C30" s="2">
-        <v>8647</v>
+        <v>9265</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>181</v>
@@ -3506,16 +3506,16 @@
         <v>2023</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>14</v>
@@ -3530,7 +3530,7 @@
         <v>480</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -3541,7 +3541,7 @@
         <v>32</v>
       </c>
       <c r="C31" s="2">
-        <v>9265</v>
+        <v>8647</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>181</v>
@@ -3556,10 +3556,10 @@
         <v>254</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>14</v>
@@ -3574,7 +3574,7 @@
         <v>480</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -3636,16 +3636,16 @@
         <v>2023</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>14</v>
@@ -3661,13 +3661,13 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="2">
-        <v>9265</v>
+        <v>9431</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>181</v>
@@ -3676,27 +3676,31 @@
         <v>2023</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+        <v>295</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>471</v>
+      </c>
       <c r="N34" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -3716,16 +3720,16 @@
         <v>2023</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>14</v>
@@ -3741,13 +3745,13 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="2">
-        <v>9431</v>
+        <v>9265</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>181</v>
@@ -3756,31 +3760,27 @@
         <v>2023</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>471</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
       <c r="N36" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -3968,10 +3968,10 @@
         <v>249</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>14</v>
@@ -4012,10 +4012,10 @@
         <v>249</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>14</v>
@@ -4056,10 +4056,10 @@
         <v>198</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>14</v>
@@ -4094,10 +4094,10 @@
         <v>198</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>14</v>
@@ -4164,10 +4164,10 @@
         <v>2023</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>262</v>
@@ -4208,10 +4208,10 @@
         <v>2023</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>266</v>
@@ -4255,7 +4255,7 @@
         <v>192</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>267</v>
@@ -4360,7 +4360,7 @@
         <v>478</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -4404,7 +4404,7 @@
         <v>478</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -4577,13 +4577,13 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C56" s="2">
-        <v>3164</v>
+        <v>2856</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>181</v>
@@ -4598,21 +4598,25 @@
         <v>196</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
+        <v>285</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>474</v>
+      </c>
       <c r="N56" s="1" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -4632,16 +4636,16 @@
         <v>2023</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>16</v>
@@ -4661,13 +4665,13 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C58" s="2">
-        <v>2856</v>
+        <v>3164</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>181</v>
@@ -4676,31 +4680,27 @@
         <v>2023</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>474</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
       <c r="N58" s="1" t="s">
-        <v>545</v>
+        <v>561</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -4711,7 +4711,7 @@
         <v>47</v>
       </c>
       <c r="C59" s="2">
-        <v>4117</v>
+        <v>4310</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>181</v>
@@ -4744,7 +4744,7 @@
         <v>477</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -4755,7 +4755,7 @@
         <v>47</v>
       </c>
       <c r="C60" s="2">
-        <v>429</v>
+        <v>1803</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>181</v>
@@ -4788,7 +4788,7 @@
         <v>477</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="C61" s="2">
-        <v>1803</v>
+        <v>2856</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>181</v>
@@ -4832,7 +4832,7 @@
         <v>477</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -4843,7 +4843,7 @@
         <v>47</v>
       </c>
       <c r="C62" s="2">
-        <v>2856</v>
+        <v>4226</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>181</v>
@@ -4876,7 +4876,7 @@
         <v>477</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -4887,7 +4887,7 @@
         <v>47</v>
       </c>
       <c r="C63" s="2">
-        <v>4226</v>
+        <v>429</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>181</v>
@@ -4920,7 +4920,7 @@
         <v>477</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -4931,7 +4931,7 @@
         <v>47</v>
       </c>
       <c r="C64" s="2">
-        <v>4310</v>
+        <v>4117</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>181</v>
@@ -4964,7 +4964,7 @@
         <v>477</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -5332,10 +5332,10 @@
         <v>2023</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>261</v>
@@ -5376,10 +5376,10 @@
         <v>2023</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>261</v>
@@ -5420,10 +5420,10 @@
         <v>2023</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>261</v>
@@ -5510,10 +5510,10 @@
         <v>208</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>17</v>
@@ -5552,10 +5552,10 @@
         <v>209</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>17</v>
@@ -5770,10 +5770,10 @@
         <v>239</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>17</v>
@@ -5814,10 +5814,10 @@
         <v>239</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>17</v>
@@ -5899,7 +5899,7 @@
         <v>192</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>262</v>
@@ -6026,16 +6026,16 @@
         <v>2023</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>207</v>
+        <v>256</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>17</v>
@@ -6070,16 +6070,16 @@
         <v>2023</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>17</v>
@@ -6114,10 +6114,10 @@
         <v>2023</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>266</v>
@@ -6189,7 +6189,7 @@
         <v>67</v>
       </c>
       <c r="C93" s="2">
-        <v>6973</v>
+        <v>3416</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>181</v>
@@ -6233,7 +6233,7 @@
         <v>67</v>
       </c>
       <c r="C94" s="2">
-        <v>3416</v>
+        <v>6973</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>181</v>
@@ -6333,7 +6333,7 @@
         <v>216</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>264</v>
@@ -6354,7 +6354,7 @@
         <v>492</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -6374,10 +6374,10 @@
         <v>2023</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>263</v>
@@ -6398,7 +6398,7 @@
         <v>493</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -6421,7 +6421,7 @@
         <v>192</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>268</v>
@@ -6530,7 +6530,7 @@
         <v>492</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -6553,7 +6553,7 @@
         <v>192</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>263</v>
@@ -7133,7 +7133,7 @@
         <v>84</v>
       </c>
       <c r="C115" s="2">
-        <v>305</v>
+        <v>613</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>181</v>
@@ -7166,7 +7166,7 @@
         <v>471</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -7177,7 +7177,7 @@
         <v>84</v>
       </c>
       <c r="C116" s="2">
-        <v>613</v>
+        <v>305</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>181</v>
@@ -7210,7 +7210,7 @@
         <v>471</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -7236,10 +7236,10 @@
         <v>208</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>17</v>
@@ -7278,10 +7278,10 @@
         <v>209</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>17</v>
@@ -7314,10 +7314,10 @@
         <v>2023</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>264</v>
@@ -7402,16 +7402,16 @@
         <v>2023</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>16</v>
@@ -7446,16 +7446,16 @@
         <v>2023</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>16</v>
@@ -7490,10 +7490,10 @@
         <v>2023</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>267</v>
@@ -7534,10 +7534,10 @@
         <v>2023</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>267</v>
@@ -7662,10 +7662,10 @@
         <v>2023</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>267</v>
@@ -7702,10 +7702,10 @@
         <v>2023</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>260</v>
@@ -7874,10 +7874,10 @@
         <v>2023</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>267</v>
@@ -7918,10 +7918,10 @@
         <v>2023</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>267</v>
@@ -7962,10 +7962,10 @@
         <v>2023</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>264</v>
@@ -8004,10 +8004,10 @@
         <v>2023</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>263</v>
@@ -8096,10 +8096,10 @@
         <v>227</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>19</v>
@@ -8140,10 +8140,10 @@
         <v>228</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>19</v>
@@ -8222,16 +8222,16 @@
         <v>2023</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>18</v>
@@ -8266,16 +8266,16 @@
         <v>2023</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>18</v>
@@ -8602,10 +8602,10 @@
         <v>2023</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>267</v>
@@ -8666,7 +8666,7 @@
         <v>510</v>
       </c>
       <c r="N150" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -8689,7 +8689,7 @@
         <v>192</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>263</v>
@@ -8750,7 +8750,7 @@
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
       <c r="N152" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -8776,7 +8776,7 @@
         <v>232</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="I153" s="1" t="s">
         <v>271</v>
@@ -8794,7 +8794,7 @@
         <v>512</v>
       </c>
       <c r="N153" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -8820,7 +8820,7 @@
         <v>233</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I154" s="1" t="s">
         <v>271</v>
@@ -8838,7 +8838,7 @@
         <v>512</v>
       </c>
       <c r="N154" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -8902,10 +8902,10 @@
         <v>2023</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>264</v>
@@ -8926,7 +8926,7 @@
         <v>513</v>
       </c>
       <c r="N156" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="157" spans="1:14">
@@ -9025,7 +9025,7 @@
         <v>116</v>
       </c>
       <c r="C159" s="2">
-        <v>4587</v>
+        <v>332</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>181</v>
@@ -9058,7 +9058,7 @@
         <v>516</v>
       </c>
       <c r="N159" s="1" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -9069,7 +9069,7 @@
         <v>116</v>
       </c>
       <c r="C160" s="2">
-        <v>332</v>
+        <v>4310</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>181</v>
@@ -9102,7 +9102,7 @@
         <v>516</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>593</v>
+        <v>550</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -9113,7 +9113,7 @@
         <v>116</v>
       </c>
       <c r="C161" s="2">
-        <v>4310</v>
+        <v>4587</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>181</v>
@@ -9146,7 +9146,7 @@
         <v>516</v>
       </c>
       <c r="N161" s="1" t="s">
-        <v>548</v>
+        <v>589</v>
       </c>
     </row>
     <row r="162" spans="1:14">
@@ -9459,13 +9459,13 @@
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C169" s="2">
-        <v>1064</v>
+        <v>2214</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>181</v>
@@ -9474,10 +9474,10 @@
         <v>2023</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>261</v>
@@ -9486,30 +9486,30 @@
         <v>272</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K169" s="1" t="s">
         <v>361</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>452</v>
+        <v>408</v>
       </c>
       <c r="M169" s="1" t="s">
-        <v>522</v>
+        <v>478</v>
       </c>
       <c r="N169" s="1" t="s">
-        <v>568</v>
+        <v>597</v>
       </c>
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C170" s="2">
-        <v>2214</v>
+        <v>1064</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>181</v>
@@ -9518,10 +9518,10 @@
         <v>2023</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>261</v>
@@ -9530,30 +9530,30 @@
         <v>272</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K170" s="1" t="s">
         <v>362</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="M170" s="1" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="N170" s="1" t="s">
-        <v>597</v>
+        <v>568</v>
       </c>
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C171" s="2">
-        <v>9431</v>
+        <v>9460</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>181</v>
@@ -9562,31 +9562,31 @@
         <v>2023</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K171" s="1" t="s">
         <v>363</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="M171" s="1" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="N171" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="172" spans="1:14">
@@ -9606,22 +9606,22 @@
         <v>2023</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>182</v>
+        <v>237</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L172" s="1" t="s">
         <v>401</v>
@@ -9635,13 +9635,13 @@
     </row>
     <row r="173" spans="1:14">
       <c r="A173" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C173" s="2">
-        <v>9460</v>
+        <v>9431</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>181</v>
@@ -9650,31 +9650,31 @@
         <v>2023</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K173" s="1" t="s">
         <v>364</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="M173" s="1" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="N173" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="174" spans="1:14">
@@ -9829,7 +9829,7 @@
         <v>192</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>263</v>
@@ -9894,7 +9894,7 @@
         <v>479</v>
       </c>
       <c r="N178" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="179" spans="1:14">
@@ -9917,7 +9917,7 @@
         <v>192</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>264</v>
@@ -9958,10 +9958,10 @@
         <v>2023</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>259</v>
@@ -9987,13 +9987,13 @@
     </row>
     <row r="181" spans="1:14">
       <c r="A181" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C181" s="2">
-        <v>7723</v>
+        <v>9521</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>181</v>
@@ -10008,36 +10008,36 @@
         <v>256</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K181" s="1" t="s">
         <v>370</v>
       </c>
       <c r="L181" s="1" t="s">
-        <v>401</v>
+        <v>455</v>
       </c>
       <c r="M181" s="1" t="s">
-        <v>471</v>
+        <v>525</v>
       </c>
       <c r="N181" s="1" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
     </row>
     <row r="182" spans="1:14">
       <c r="A182" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C182" s="2">
-        <v>9521</v>
+        <v>7723</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>181</v>
@@ -10052,25 +10052,25 @@
         <v>256</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K182" s="1" t="s">
         <v>371</v>
       </c>
       <c r="L182" s="1" t="s">
-        <v>455</v>
+        <v>401</v>
       </c>
       <c r="M182" s="1" t="s">
-        <v>525</v>
+        <v>471</v>
       </c>
       <c r="N182" s="1" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
     </row>
     <row r="183" spans="1:14">
@@ -10134,10 +10134,10 @@
         <v>2023</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>261</v>
@@ -10178,10 +10178,10 @@
         <v>2023</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>261</v>
@@ -10213,7 +10213,7 @@
         <v>134</v>
       </c>
       <c r="C186" s="2">
-        <v>9521</v>
+        <v>7684</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>181</v>
@@ -10246,7 +10246,7 @@
         <v>527</v>
       </c>
       <c r="N186" s="1" t="s">
-        <v>554</v>
+        <v>601</v>
       </c>
     </row>
     <row r="187" spans="1:14">
@@ -10257,7 +10257,7 @@
         <v>134</v>
       </c>
       <c r="C187" s="2">
-        <v>7684</v>
+        <v>9521</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>181</v>
@@ -10290,7 +10290,7 @@
         <v>527</v>
       </c>
       <c r="N187" s="1" t="s">
-        <v>601</v>
+        <v>553</v>
       </c>
     </row>
     <row r="188" spans="1:14">
@@ -10394,10 +10394,10 @@
         <v>2023</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>261</v>
@@ -10438,10 +10438,10 @@
         <v>2023</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>261</v>
@@ -10698,10 +10698,10 @@
         <v>2023</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>261</v>
@@ -10953,7 +10953,7 @@
         <v>192</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H203" s="1" t="s">
         <v>260</v>
@@ -11018,7 +11018,7 @@
         <v>510</v>
       </c>
       <c r="N204" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="205" spans="1:14">
@@ -11082,10 +11082,10 @@
         <v>2023</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>239</v>
+        <v>186</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>239</v>
+        <v>186</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>261</v>
@@ -11126,10 +11126,10 @@
         <v>2023</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H207" s="1" t="s">
         <v>261</v>
@@ -11170,10 +11170,10 @@
         <v>2023</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="H208" s="1" t="s">
         <v>261</v>
@@ -11293,7 +11293,7 @@
         <v>150</v>
       </c>
       <c r="C211" s="2">
-        <v>7015</v>
+        <v>8200</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>181</v>
@@ -11337,7 +11337,7 @@
         <v>150</v>
       </c>
       <c r="C212" s="2">
-        <v>9441</v>
+        <v>7015</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>181</v>
@@ -11381,7 +11381,7 @@
         <v>150</v>
       </c>
       <c r="C213" s="2">
-        <v>8200</v>
+        <v>9441</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>181</v>
@@ -11854,7 +11854,7 @@
         <v>535</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="224" spans="1:14">
@@ -12022,7 +12022,7 @@
       <c r="L227" s="1"/>
       <c r="M227" s="1"/>
       <c r="N227" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="228" spans="1:14">
@@ -12066,7 +12066,7 @@
         <v>493</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="229" spans="1:14">
@@ -12110,7 +12110,7 @@
         <v>512</v>
       </c>
       <c r="N229" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="230" spans="1:14">
@@ -12130,16 +12130,16 @@
         <v>2023</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>17</v>
@@ -12174,16 +12174,16 @@
         <v>2023</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>17</v>
@@ -12345,13 +12345,13 @@
         <v>192</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>17</v>
@@ -12385,13 +12385,13 @@
         <v>192</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>17</v>
@@ -12508,10 +12508,10 @@
         <v>2023</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>261</v>
@@ -12552,10 +12552,10 @@
         <v>2023</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H240" s="1" t="s">
         <v>261</v>
@@ -12596,10 +12596,10 @@
         <v>2023</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H241" s="1" t="s">
         <v>261</v>
@@ -12640,10 +12640,10 @@
         <v>2023</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H242" s="1" t="s">
         <v>261</v>
@@ -12684,10 +12684,10 @@
         <v>2023</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="H243" s="1" t="s">
         <v>261</v>
@@ -12728,10 +12728,10 @@
         <v>2023</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>240</v>
+        <v>186</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>240</v>
+        <v>186</v>
       </c>
       <c r="H244" s="1" t="s">
         <v>261</v>
@@ -13082,10 +13082,10 @@
         <v>239</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>17</v>
@@ -13124,10 +13124,10 @@
         <v>239</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>17</v>
@@ -13160,10 +13160,10 @@
         <v>2023</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="H254" s="1" t="s">
         <v>259</v>
@@ -13204,16 +13204,16 @@
         <v>2023</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>17</v>
@@ -13254,10 +13254,10 @@
         <v>196</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>17</v>
@@ -13295,7 +13295,7 @@
         <v>192</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H257" s="1" t="s">
         <v>259</v>
@@ -13396,7 +13396,7 @@
         <v>513</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="260" spans="1:14">

--- a/results/cviceni_bez_cvicich.xlsx
+++ b/results/cviceni_bez_cvicich.xlsx
@@ -178,37 +178,40 @@
     <t>Cv</t>
   </si>
   <si>
+    <t>15.5.2024</t>
+  </si>
+  <si>
+    <t>17.4.2024</t>
+  </si>
+  <si>
     <t>24.4.2024</t>
   </si>
   <si>
-    <t>17.4.2024</t>
-  </si>
-  <si>
-    <t>15.5.2024</t>
+    <t>9.5.2024</t>
+  </si>
+  <si>
+    <t>11.4.2024</t>
   </si>
   <si>
     <t>25.4.2024</t>
   </si>
   <si>
-    <t>11.4.2024</t>
-  </si>
-  <si>
-    <t>9.5.2024</t>
-  </si>
-  <si>
     <t>16.5.2024</t>
   </si>
   <si>
+    <t>2.5.2024</t>
+  </si>
+  <si>
     <t>18.4.2024</t>
   </si>
   <si>
-    <t>2.5.2024</t>
+    <t>7.5.2024</t>
   </si>
   <si>
     <t>23.4.2024</t>
   </si>
   <si>
-    <t>7.5.2024</t>
+    <t>30.4.2024</t>
   </si>
   <si>
     <t>16.4.2024</t>
@@ -217,9 +220,6 @@
     <t>14.5.2024</t>
   </si>
   <si>
-    <t>30.4.2024</t>
-  </si>
-  <si>
     <t>4.5.2024</t>
   </si>
   <si>
@@ -355,10 +355,10 @@
     <t>Babichev Sergii, prof. CSc., DSc.</t>
   </si>
   <si>
+    <t>Beránek Pavel, Ing. Mgr.</t>
+  </si>
+  <si>
     <t>Škvára Jiří, RNDr. Ph.D.</t>
-  </si>
-  <si>
-    <t>Beránek Pavel, Ing. Mgr.</t>
   </si>
   <si>
     <t>Liegertová Michaela, Mgr. Ph.D.</t>
@@ -1207,7 +1207,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="2">
-        <v>2220</v>
+        <v>3416</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>53</v>
@@ -1229,7 +1229,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1267,7 +1267,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="2">
-        <v>6259</v>
+        <v>6973</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>53</v>
@@ -1306,7 +1306,7 @@
         <v>2023</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>73</v>
@@ -1319,7 +1319,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1327,7 +1327,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>3416</v>
+        <v>2220</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>53</v>
@@ -1349,7 +1349,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1357,7 +1357,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="2">
-        <v>6973</v>
+        <v>6259</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>53</v>
@@ -1366,7 +1366,7 @@
         <v>2023</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>73</v>
@@ -1387,7 +1387,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="2">
-        <v>6973</v>
+        <v>2220</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>53</v>
@@ -1396,7 +1396,7 @@
         <v>2023</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>73</v>
@@ -1409,7 +1409,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1439,7 +1439,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1447,7 +1447,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>6259</v>
+        <v>6973</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>53</v>
@@ -1456,7 +1456,7 @@
         <v>2023</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>73</v>
@@ -1477,7 +1477,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>2220</v>
+        <v>6259</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>53</v>
@@ -1486,7 +1486,7 @@
         <v>2023</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>73</v>
@@ -1499,7 +1499,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1507,7 +1507,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>3416</v>
+        <v>2220</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>53</v>
@@ -1529,7 +1529,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1537,7 +1537,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="2">
-        <v>2220</v>
+        <v>3416</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>53</v>
@@ -1546,7 +1546,7 @@
         <v>2023</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>73</v>
@@ -1559,7 +1559,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1698,7 +1698,7 @@
         <v>2023</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>74</v>
@@ -1719,7 +1719,7 @@
         <v>105</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1736,7 +1736,7 @@
         <v>2023</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>74</v>
@@ -1757,7 +1757,7 @@
         <v>105</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1774,7 +1774,7 @@
         <v>2023</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>74</v>
@@ -1795,7 +1795,7 @@
         <v>105</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1833,7 +1833,7 @@
         <v>105</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1871,7 +1871,7 @@
         <v>105</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1909,7 +1909,7 @@
         <v>105</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2164,7 +2164,7 @@
         <v>2023</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>77</v>
@@ -2368,7 +2368,7 @@
         <v>2023</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>76</v>
@@ -2406,7 +2406,7 @@
         <v>2023</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>76</v>
@@ -2444,7 +2444,7 @@
         <v>2023</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>76</v>
@@ -2482,7 +2482,7 @@
         <v>2023</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>76</v>
@@ -2520,7 +2520,7 @@
         <v>2023</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>76</v>
@@ -2834,7 +2834,7 @@
         <v>2023</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>73</v>
@@ -2872,7 +2872,7 @@
         <v>2023</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>73</v>

--- a/results/cviceni_bez_cvicich.xlsx
+++ b/results/cviceni_bez_cvicich.xlsx
@@ -568,12 +568,12 @@
     <t>4.10.2023</t>
   </si>
   <si>
+    <t>6.10.2023</t>
+  </si>
+  <si>
     <t>5.10.2023</t>
   </si>
   <si>
-    <t>6.10.2023</t>
-  </si>
-  <si>
     <t>9.11.2023</t>
   </si>
   <si>
@@ -586,12 +586,12 @@
     <t>21.3.2024</t>
   </si>
   <si>
+    <t>22.2.2024</t>
+  </si>
+  <si>
     <t>2.5.2024</t>
   </si>
   <si>
-    <t>22.2.2024</t>
-  </si>
-  <si>
     <t>19.2.2024</t>
   </si>
   <si>
@@ -634,12 +634,12 @@
     <t>27.4.2024</t>
   </si>
   <si>
+    <t>15.12.2023</t>
+  </si>
+  <si>
     <t>22.12.2023</t>
   </si>
   <si>
-    <t>15.12.2023</t>
-  </si>
-  <si>
     <t>9.12.2023</t>
   </si>
   <si>
@@ -655,12 +655,12 @@
     <t>11.10.2023</t>
   </si>
   <si>
+    <t>9.10.2023</t>
+  </si>
+  <si>
     <t>13.10.2023</t>
   </si>
   <si>
-    <t>9.10.2023</t>
-  </si>
-  <si>
     <t>6.3.2024</t>
   </si>
   <si>
@@ -673,15 +673,15 @@
     <t>14.10.2023</t>
   </si>
   <si>
+    <t>17.12.2023</t>
+  </si>
+  <si>
+    <t>19.11.2023</t>
+  </si>
+  <si>
     <t>8.10.2023</t>
   </si>
   <si>
-    <t>17.12.2023</t>
-  </si>
-  <si>
-    <t>19.11.2023</t>
-  </si>
-  <si>
     <t>11.5.2024</t>
   </si>
   <si>
@@ -712,12 +712,12 @@
     <t>3.5.2024</t>
   </si>
   <si>
+    <t>5.11.2023</t>
+  </si>
+  <si>
     <t>25.11.2023</t>
   </si>
   <si>
-    <t>5.11.2023</t>
-  </si>
-  <si>
     <t>5.5.2024</t>
   </si>
   <si>
@@ -730,33 +730,33 @@
     <t>28.2.2024</t>
   </si>
   <si>
+    <t>23.11.2023</t>
+  </si>
+  <si>
+    <t>4.1.2024</t>
+  </si>
+  <si>
+    <t>26.10.2023</t>
+  </si>
+  <si>
+    <t>2.11.2023</t>
+  </si>
+  <si>
     <t>7.12.2023</t>
   </si>
   <si>
-    <t>4.1.2024</t>
-  </si>
-  <si>
-    <t>26.10.2023</t>
-  </si>
-  <si>
-    <t>2.11.2023</t>
-  </si>
-  <si>
-    <t>23.11.2023</t>
-  </si>
-  <si>
     <t>12.10.2023</t>
   </si>
   <si>
+    <t>4.4.2024</t>
+  </si>
+  <si>
     <t>25.4.2024</t>
   </si>
   <si>
     <t>7.3.2024</t>
   </si>
   <si>
-    <t>4.4.2024</t>
-  </si>
-  <si>
     <t>28.3.2024</t>
   </si>
   <si>
@@ -769,12 +769,12 @@
     <t>3.1.2024</t>
   </si>
   <si>
+    <t>16.5.2024</t>
+  </si>
+  <si>
     <t>13.5.2024</t>
   </si>
   <si>
-    <t>16.5.2024</t>
-  </si>
-  <si>
     <t>14.5.2024</t>
   </si>
   <si>
@@ -805,24 +805,24 @@
     <t>11:00</t>
   </si>
   <si>
+    <t>14:00</t>
+  </si>
+  <si>
     <t>10:00</t>
   </si>
   <si>
-    <t>14:00</t>
-  </si>
-  <si>
     <t>15:00</t>
   </si>
   <si>
     <t>17:00</t>
   </si>
   <si>
+    <t>08:00</t>
+  </si>
+  <si>
     <t>09:00</t>
   </si>
   <si>
-    <t>08:00</t>
-  </si>
-  <si>
     <t>18:00</t>
   </si>
   <si>
@@ -898,12 +898,12 @@
     <t>Regionální geografie II</t>
   </si>
   <si>
+    <t>Chemické inženýrství</t>
+  </si>
+  <si>
     <t>Rozvojové problémy regionů Česka</t>
   </si>
   <si>
-    <t>Chemické inženýrství</t>
-  </si>
-  <si>
     <t>Monitor. vybr. prvků atmosf.a hydrosf. I</t>
   </si>
   <si>
@@ -1105,12 +1105,12 @@
     <t>Odborná angličtina Nmgr.</t>
   </si>
   <si>
+    <t>Chemické inženýrství Nmgr.</t>
+  </si>
+  <si>
     <t>Kulturní krajiny Česka</t>
   </si>
   <si>
-    <t>Chemické inženýrství Nmgr.</t>
-  </si>
-  <si>
     <t>Syntéza, izolace a charakterizace látek</t>
   </si>
   <si>
@@ -1126,12 +1126,12 @@
     <t>Didaktika geografie II</t>
   </si>
   <si>
+    <t>Poč. modelování spojitých soustav III</t>
+  </si>
+  <si>
     <t>Urbánní environmentalistika</t>
   </si>
   <si>
-    <t>Poč. modelování spojitých soustav III</t>
-  </si>
-  <si>
     <t>Diplomový seminář I</t>
   </si>
   <si>
@@ -1651,36 +1651,36 @@
     <t>Greguš Viktor, Ing.</t>
   </si>
   <si>
+    <t>Dědičová Šárka, Mgr.</t>
+  </si>
+  <si>
     <t>Škvorová Magda, Ing. Ph.D.</t>
   </si>
   <si>
-    <t>Dědičová Šárka, Mgr.</t>
-  </si>
-  <si>
     <t>Bartůněk Martin, Mgr.</t>
   </si>
   <si>
+    <t>Nguyen Thi Thu Huong, RNDr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Nezbeda Ivo, prof. RNDr. DrSc.</t>
+  </si>
+  <si>
+    <t>Šícha Václav, RNDr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Vrtoch Ľuboš, RNDr. PhD., Ph.D.</t>
+  </si>
+  <si>
     <t>Havlica Jaromír, doc. Ing. Ph.D.</t>
   </si>
   <si>
-    <t>Nezbeda Ivo, prof. RNDr. DrSc.</t>
-  </si>
-  <si>
-    <t>Šícha Václav, RNDr. Ph.D.</t>
-  </si>
-  <si>
-    <t>Vrtoch Ľuboš, RNDr. PhD., Ph.D.</t>
-  </si>
-  <si>
-    <t>Nguyen Thi Thu Huong, RNDr. Ph.D.</t>
+    <t>Dužeková Radka, Mgr.</t>
   </si>
   <si>
     <t>Vaverka Lukáš, Mgr.</t>
   </si>
   <si>
-    <t>Dužeková Radka, Mgr.</t>
-  </si>
-  <si>
     <t>Šmíd Ondřej, Mgr.</t>
   </si>
   <si>
@@ -1735,12 +1735,12 @@
     <t>Babichev Sergii, prof. CSc., DSc.</t>
   </si>
   <si>
+    <t>Škvára Jiří, RNDr. Ph.D.</t>
+  </si>
+  <si>
     <t>Beránek Pavel, Ing. Mgr.</t>
   </si>
   <si>
-    <t>Škvára Jiří, RNDr. Ph.D.</t>
-  </si>
-  <si>
     <t>Dočkal Jan, RNDr. Ph.D.</t>
   </si>
   <si>
@@ -1810,12 +1810,12 @@
     <t>Zábranský Vilém, Mgr. Ph.D.</t>
   </si>
   <si>
+    <t>Dušková Tereza, Mgr.</t>
+  </si>
+  <si>
     <t>Kaule Pavel, Mgr.</t>
   </si>
   <si>
-    <t>Dušková Tereza, Mgr.</t>
-  </si>
-  <si>
     <t>Raška Pavel, doc. Mgr. Ph.D.</t>
   </si>
   <si>
@@ -1828,10 +1828,10 @@
     <t>Jirsák Jan, doc. RNDr. Ph.D.</t>
   </si>
   <si>
+    <t>Kuráň Pavel, doc. Dr. Ing.</t>
+  </si>
+  <si>
     <t>Oravová Lucie, Ing. Ph.D.</t>
-  </si>
-  <si>
-    <t>Kuráň Pavel, doc. Dr. Ing.</t>
   </si>
   <si>
     <t>Barchánková Ivana, Ing. Ph.D.</t>
@@ -2445,7 +2445,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="2">
-        <v>2856</v>
+        <v>9049</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>181</v>
@@ -2457,13 +2457,13 @@
         <v>184</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>263</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
@@ -2489,7 +2489,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="2">
-        <v>9049</v>
+        <v>2856</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>181</v>
@@ -2501,13 +2501,13 @@
         <v>185</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>264</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>16</v>
@@ -2632,7 +2632,7 @@
         <v>249</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>274</v>
@@ -2717,10 +2717,10 @@
         <v>185</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>273</v>
@@ -2761,10 +2761,10 @@
         <v>184</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>273</v>
@@ -2793,7 +2793,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>1803</v>
+        <v>7723</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>181</v>
@@ -2826,7 +2826,7 @@
         <v>477</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -2837,7 +2837,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="2">
-        <v>305</v>
+        <v>2856</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>181</v>
@@ -2870,7 +2870,7 @@
         <v>477</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -2881,7 +2881,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="2">
-        <v>7723</v>
+        <v>429</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>181</v>
@@ -2890,10 +2890,10 @@
         <v>2023</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>261</v>
@@ -2914,7 +2914,7 @@
         <v>477</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2925,7 +2925,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="2">
-        <v>4310</v>
+        <v>305</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>181</v>
@@ -2934,10 +2934,10 @@
         <v>2023</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>261</v>
@@ -2958,7 +2958,7 @@
         <v>477</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2969,7 +2969,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="2">
-        <v>4117</v>
+        <v>4310</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>181</v>
@@ -2978,10 +2978,10 @@
         <v>2023</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>261</v>
@@ -3002,7 +3002,7 @@
         <v>477</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -3013,7 +3013,7 @@
         <v>28</v>
       </c>
       <c r="C19" s="2">
-        <v>429</v>
+        <v>4117</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>181</v>
@@ -3046,7 +3046,7 @@
         <v>477</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -3057,7 +3057,7 @@
         <v>28</v>
       </c>
       <c r="C20" s="2">
-        <v>2856</v>
+        <v>1803</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>181</v>
@@ -3066,10 +3066,10 @@
         <v>2023</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>261</v>
@@ -3090,7 +3090,7 @@
         <v>477</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -3101,7 +3101,7 @@
         <v>29</v>
       </c>
       <c r="C21" s="2">
-        <v>9521</v>
+        <v>9245</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>181</v>
@@ -3110,7 +3110,7 @@
         <v>2023</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>251</v>
@@ -3145,7 +3145,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="2">
-        <v>9245</v>
+        <v>9521</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>181</v>
@@ -3154,16 +3154,16 @@
         <v>2023</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>252</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>14</v>
@@ -3222,7 +3222,7 @@
         <v>478</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -3242,16 +3242,16 @@
         <v>2023</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>14</v>
@@ -3266,7 +3266,7 @@
         <v>478</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -3310,7 +3310,7 @@
         <v>478</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -3336,10 +3336,10 @@
         <v>253</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>14</v>
@@ -3354,7 +3354,7 @@
         <v>479</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -3380,10 +3380,10 @@
         <v>253</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>14</v>
@@ -3398,7 +3398,7 @@
         <v>479</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -3421,10 +3421,10 @@
         <v>192</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>273</v>
@@ -3442,7 +3442,7 @@
         <v>474</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -3497,7 +3497,7 @@
         <v>32</v>
       </c>
       <c r="C30" s="2">
-        <v>9265</v>
+        <v>8647</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>181</v>
@@ -3512,10 +3512,10 @@
         <v>254</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>14</v>
@@ -3530,7 +3530,7 @@
         <v>480</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -3541,7 +3541,7 @@
         <v>32</v>
       </c>
       <c r="C31" s="2">
-        <v>8647</v>
+        <v>9265</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>181</v>
@@ -3556,10 +3556,10 @@
         <v>254</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>14</v>
@@ -3574,7 +3574,7 @@
         <v>480</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -3594,7 +3594,7 @@
         <v>2023</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>196</v>
@@ -3621,13 +3621,13 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="2">
-        <v>6919</v>
+        <v>9431</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>181</v>
@@ -3639,35 +3639,39 @@
         <v>184</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>267</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+      <c r="L33" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>471</v>
+      </c>
       <c r="N33" s="1" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="2">
-        <v>9431</v>
+        <v>6919</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>181</v>
@@ -3679,28 +3683,24 @@
         <v>185</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>268</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="L34" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>471</v>
-      </c>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
       <c r="N34" s="1" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -3726,7 +3726,7 @@
         <v>254</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>274</v>
@@ -3735,7 +3735,7 @@
         <v>14</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -3775,7 +3775,7 @@
         <v>14</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -3840,7 +3840,7 @@
         <v>2023</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>196</v>
@@ -3882,13 +3882,13 @@
         <v>2023</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>196</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>272</v>
@@ -3968,10 +3968,10 @@
         <v>249</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>14</v>
@@ -4012,10 +4012,10 @@
         <v>249</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>14</v>
@@ -4056,7 +4056,7 @@
         <v>198</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>272</v>
@@ -4094,10 +4094,10 @@
         <v>198</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>14</v>
@@ -4132,10 +4132,10 @@
         <v>198</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>14</v>
@@ -4164,16 +4164,16 @@
         <v>2023</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>14</v>
@@ -4208,16 +4208,16 @@
         <v>2023</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>14</v>
@@ -4255,10 +4255,10 @@
         <v>192</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>278</v>
@@ -4302,7 +4302,7 @@
         <v>250</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>274</v>
@@ -4336,13 +4336,13 @@
         <v>2023</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>239</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>277</v>
@@ -4360,7 +4360,7 @@
         <v>478</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -4380,13 +4380,13 @@
         <v>2023</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>239</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>277</v>
@@ -4404,7 +4404,7 @@
         <v>478</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -4424,10 +4424,10 @@
         <v>2023</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>261</v>
@@ -4464,10 +4464,10 @@
         <v>2023</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>261</v>
@@ -4504,10 +4504,10 @@
         <v>2023</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>261</v>
@@ -4548,10 +4548,10 @@
         <v>2023</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>261</v>
@@ -4616,18 +4616,18 @@
         <v>474</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C57" s="2">
-        <v>2856</v>
+        <v>3164</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>181</v>
@@ -4636,42 +4636,38 @@
         <v>2023</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>474</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
       <c r="N57" s="1" t="s">
-        <v>545</v>
+        <v>561</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C58" s="2">
-        <v>3164</v>
+        <v>2856</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>181</v>
@@ -4680,27 +4676,31 @@
         <v>2023</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
+        <v>285</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>474</v>
+      </c>
       <c r="N58" s="1" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -4726,7 +4726,7 @@
         <v>198</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>276</v>
@@ -4755,7 +4755,7 @@
         <v>47</v>
       </c>
       <c r="C60" s="2">
-        <v>1803</v>
+        <v>2856</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>181</v>
@@ -4770,7 +4770,7 @@
         <v>198</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>276</v>
@@ -4788,7 +4788,7 @@
         <v>477</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="C61" s="2">
-        <v>2856</v>
+        <v>1803</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>181</v>
@@ -4814,7 +4814,7 @@
         <v>198</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>276</v>
@@ -4832,7 +4832,7 @@
         <v>477</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -4843,7 +4843,7 @@
         <v>47</v>
       </c>
       <c r="C62" s="2">
-        <v>4226</v>
+        <v>429</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>181</v>
@@ -4858,7 +4858,7 @@
         <v>198</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>276</v>
@@ -4876,7 +4876,7 @@
         <v>477</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -4887,7 +4887,7 @@
         <v>47</v>
       </c>
       <c r="C63" s="2">
-        <v>429</v>
+        <v>4117</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>181</v>
@@ -4902,7 +4902,7 @@
         <v>198</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>276</v>
@@ -4920,7 +4920,7 @@
         <v>477</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -4931,7 +4931,7 @@
         <v>47</v>
       </c>
       <c r="C64" s="2">
-        <v>4117</v>
+        <v>4226</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>181</v>
@@ -4946,7 +4946,7 @@
         <v>198</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>276</v>
@@ -4964,7 +4964,7 @@
         <v>477</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -4990,7 +4990,7 @@
         <v>199</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>275</v>
@@ -5034,7 +5034,7 @@
         <v>200</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>275</v>
@@ -5112,16 +5112,16 @@
         <v>2023</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>16</v>
@@ -5136,7 +5136,7 @@
         <v>474</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -5156,16 +5156,16 @@
         <v>2023</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>16</v>
@@ -5180,7 +5180,7 @@
         <v>474</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -5206,7 +5206,7 @@
         <v>203</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>275</v>
@@ -5250,7 +5250,7 @@
         <v>204</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>275</v>
@@ -5294,7 +5294,7 @@
         <v>205</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>275</v>
@@ -5347,7 +5347,7 @@
         <v>16</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>401</v>
@@ -5376,10 +5376,10 @@
         <v>2023</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>261</v>
@@ -5391,7 +5391,7 @@
         <v>16</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>401</v>
@@ -5420,10 +5420,10 @@
         <v>2023</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>261</v>
@@ -5435,7 +5435,7 @@
         <v>16</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>401</v>
@@ -5510,7 +5510,7 @@
         <v>208</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>279</v>
@@ -5552,7 +5552,7 @@
         <v>209</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>270</v>
@@ -5594,7 +5594,7 @@
         <v>210</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>275</v>
@@ -5638,7 +5638,7 @@
         <v>211</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>279</v>
@@ -5682,7 +5682,7 @@
         <v>250</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>273</v>
@@ -5726,7 +5726,7 @@
         <v>255</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>273</v>
@@ -5764,16 +5764,16 @@
         <v>2023</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>239</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>17</v>
@@ -5808,16 +5808,16 @@
         <v>2023</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>239</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>17</v>
@@ -5858,7 +5858,7 @@
         <v>253</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>277</v>
@@ -5899,7 +5899,7 @@
         <v>192</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>262</v>
@@ -5940,7 +5940,7 @@
         <v>2023</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>239</v>
@@ -5982,10 +5982,10 @@
         <v>2023</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>260</v>
@@ -6026,13 +6026,13 @@
         <v>2023</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>256</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>273</v>
@@ -6070,10 +6070,10 @@
         <v>2023</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>260</v>
@@ -6114,10 +6114,10 @@
         <v>2023</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>266</v>
@@ -6158,7 +6158,7 @@
         <v>2023</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>239</v>
@@ -6233,7 +6233,7 @@
         <v>67</v>
       </c>
       <c r="C94" s="2">
-        <v>6973</v>
+        <v>6259</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>181</v>
@@ -6277,7 +6277,7 @@
         <v>67</v>
       </c>
       <c r="C95" s="2">
-        <v>6259</v>
+        <v>6973</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>181</v>
@@ -6336,7 +6336,7 @@
         <v>188</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>272</v>
@@ -6374,13 +6374,13 @@
         <v>2023</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>273</v>
@@ -6398,7 +6398,7 @@
         <v>493</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -6421,10 +6421,10 @@
         <v>192</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>278</v>
@@ -6553,10 +6553,10 @@
         <v>192</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>274</v>
@@ -6600,7 +6600,7 @@
         <v>250</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>278</v>
@@ -6640,7 +6640,7 @@
         <v>250</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>278</v>
@@ -6724,7 +6724,7 @@
         <v>219</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>276</v>
@@ -6768,7 +6768,7 @@
         <v>220</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>276</v>
@@ -6812,7 +6812,7 @@
         <v>221</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>276</v>
@@ -6856,7 +6856,7 @@
         <v>210</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>275</v>
@@ -6900,7 +6900,7 @@
         <v>199</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>275</v>
@@ -6944,7 +6944,7 @@
         <v>200</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>275</v>
@@ -6988,7 +6988,7 @@
         <v>222</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>272</v>
@@ -7028,7 +7028,7 @@
         <v>202</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>272</v>
@@ -7068,7 +7068,7 @@
         <v>211</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>275</v>
@@ -7108,7 +7108,7 @@
         <v>223</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>275</v>
@@ -7148,7 +7148,7 @@
         <v>224</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>271</v>
@@ -7192,7 +7192,7 @@
         <v>224</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>271</v>
@@ -7230,16 +7230,16 @@
         <v>2023</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>264</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>17</v>
@@ -7272,16 +7272,16 @@
         <v>2023</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>263</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>17</v>
@@ -7314,16 +7314,16 @@
         <v>2023</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>17</v>
@@ -7358,16 +7358,16 @@
         <v>2023</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>17</v>
@@ -7402,16 +7402,16 @@
         <v>2023</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>16</v>
@@ -7426,7 +7426,7 @@
         <v>474</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -7446,16 +7446,16 @@
         <v>2023</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>16</v>
@@ -7470,7 +7470,7 @@
         <v>474</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -7496,7 +7496,7 @@
         <v>222</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>275</v>
@@ -7540,7 +7540,7 @@
         <v>225</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I124" s="1" t="s">
         <v>275</v>
@@ -7584,7 +7584,7 @@
         <v>203</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>270</v>
@@ -7668,7 +7668,7 @@
         <v>204</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>272</v>
@@ -7748,7 +7748,7 @@
         <v>199</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>275</v>
@@ -7792,7 +7792,7 @@
         <v>200</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I130" s="1" t="s">
         <v>275</v>
@@ -7836,7 +7836,7 @@
         <v>203</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I131" s="1" t="s">
         <v>275</v>
@@ -7880,7 +7880,7 @@
         <v>205</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>275</v>
@@ -7924,7 +7924,7 @@
         <v>204</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>275</v>
@@ -7968,7 +7968,7 @@
         <v>208</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I134" s="1" t="s">
         <v>279</v>
@@ -8010,7 +8010,7 @@
         <v>209</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I135" s="1" t="s">
         <v>270</v>
@@ -8052,7 +8052,7 @@
         <v>210</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I136" s="1" t="s">
         <v>275</v>
@@ -8096,7 +8096,7 @@
         <v>227</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I137" s="1" t="s">
         <v>279</v>
@@ -8140,7 +8140,7 @@
         <v>228</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I138" s="1" t="s">
         <v>270</v>
@@ -8184,7 +8184,7 @@
         <v>229</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I139" s="1" t="s">
         <v>274</v>
@@ -8222,16 +8222,16 @@
         <v>2023</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>18</v>
@@ -8266,16 +8266,16 @@
         <v>2023</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>18</v>
@@ -8310,13 +8310,13 @@
         <v>2023</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I142" s="1" t="s">
         <v>276</v>
@@ -8354,13 +8354,13 @@
         <v>2023</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I143" s="1" t="s">
         <v>276</v>
@@ -8404,7 +8404,7 @@
         <v>223</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I144" s="1" t="s">
         <v>276</v>
@@ -8442,7 +8442,7 @@
         <v>224</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I145" s="1" t="s">
         <v>271</v>
@@ -8482,7 +8482,7 @@
         <v>196</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I146" s="1" t="s">
         <v>271</v>
@@ -8524,7 +8524,7 @@
         <v>230</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I147" s="1" t="s">
         <v>279</v>
@@ -8564,7 +8564,7 @@
         <v>211</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I148" s="1" t="s">
         <v>276</v>
@@ -8608,7 +8608,7 @@
         <v>204</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I149" s="1" t="s">
         <v>275</v>
@@ -8648,7 +8648,7 @@
         <v>231</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I150" s="1" t="s">
         <v>276</v>
@@ -8666,7 +8666,7 @@
         <v>510</v>
       </c>
       <c r="N150" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -8689,10 +8689,10 @@
         <v>192</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I151" s="1" t="s">
         <v>274</v>
@@ -8750,7 +8750,7 @@
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
       <c r="N152" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -8776,7 +8776,7 @@
         <v>232</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I153" s="1" t="s">
         <v>271</v>
@@ -8794,7 +8794,7 @@
         <v>512</v>
       </c>
       <c r="N153" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -8820,7 +8820,7 @@
         <v>233</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="I154" s="1" t="s">
         <v>271</v>
@@ -8838,7 +8838,7 @@
         <v>512</v>
       </c>
       <c r="N154" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -8864,7 +8864,7 @@
         <v>234</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I155" s="1" t="s">
         <v>271</v>
@@ -8902,13 +8902,13 @@
         <v>2023</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I156" s="1" t="s">
         <v>271</v>
@@ -8952,7 +8952,7 @@
         <v>235</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I157" s="1" t="s">
         <v>271</v>
@@ -8996,7 +8996,7 @@
         <v>223</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I158" s="1" t="s">
         <v>271</v>
@@ -9025,7 +9025,7 @@
         <v>116</v>
       </c>
       <c r="C159" s="2">
-        <v>332</v>
+        <v>4310</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>181</v>
@@ -9040,7 +9040,7 @@
         <v>253</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I159" s="1" t="s">
         <v>270</v>
@@ -9058,7 +9058,7 @@
         <v>516</v>
       </c>
       <c r="N159" s="1" t="s">
-        <v>593</v>
+        <v>550</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -9069,7 +9069,7 @@
         <v>116</v>
       </c>
       <c r="C160" s="2">
-        <v>4310</v>
+        <v>4587</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>181</v>
@@ -9084,7 +9084,7 @@
         <v>253</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I160" s="1" t="s">
         <v>270</v>
@@ -9102,7 +9102,7 @@
         <v>516</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>550</v>
+        <v>589</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -9113,7 +9113,7 @@
         <v>116</v>
       </c>
       <c r="C161" s="2">
-        <v>4587</v>
+        <v>332</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>181</v>
@@ -9128,7 +9128,7 @@
         <v>253</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I161" s="1" t="s">
         <v>270</v>
@@ -9146,7 +9146,7 @@
         <v>516</v>
       </c>
       <c r="N161" s="1" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
     </row>
     <row r="162" spans="1:14">
@@ -9172,7 +9172,7 @@
         <v>249</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I162" s="1" t="s">
         <v>273</v>
@@ -9342,7 +9342,7 @@
         <v>2023</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>239</v>
@@ -9386,7 +9386,7 @@
         <v>2023</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>239</v>
@@ -9436,7 +9436,7 @@
         <v>254</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I168" s="1" t="s">
         <v>278</v>
@@ -9547,13 +9547,13 @@
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C171" s="2">
-        <v>9460</v>
+        <v>9431</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>181</v>
@@ -9562,42 +9562,42 @@
         <v>2023</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K171" s="1" t="s">
         <v>363</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="M171" s="1" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="N171" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="172" spans="1:14">
       <c r="A172" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C172" s="2">
-        <v>9431</v>
+        <v>9460</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>181</v>
@@ -9606,31 +9606,31 @@
         <v>2023</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K172" s="1" t="s">
         <v>364</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="M172" s="1" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="N172" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="173" spans="1:14">
@@ -9665,7 +9665,7 @@
         <v>16</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L173" s="1" t="s">
         <v>401</v>
@@ -9685,7 +9685,7 @@
         <v>126</v>
       </c>
       <c r="C174" s="2">
-        <v>7981</v>
+        <v>9302</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>181</v>
@@ -9700,7 +9700,7 @@
         <v>253</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I174" s="1" t="s">
         <v>270</v>
@@ -9729,7 +9729,7 @@
         <v>126</v>
       </c>
       <c r="C175" s="2">
-        <v>9301</v>
+        <v>7981</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>181</v>
@@ -9744,7 +9744,7 @@
         <v>253</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I175" s="1" t="s">
         <v>270</v>
@@ -9762,7 +9762,7 @@
         <v>473</v>
       </c>
       <c r="N175" s="1" t="s">
-        <v>544</v>
+        <v>599</v>
       </c>
     </row>
     <row r="176" spans="1:14">
@@ -9773,7 +9773,7 @@
         <v>126</v>
       </c>
       <c r="C176" s="2">
-        <v>9302</v>
+        <v>9301</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>181</v>
@@ -9788,7 +9788,7 @@
         <v>253</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I176" s="1" t="s">
         <v>270</v>
@@ -9806,7 +9806,7 @@
         <v>473</v>
       </c>
       <c r="N176" s="1" t="s">
-        <v>599</v>
+        <v>544</v>
       </c>
     </row>
     <row r="177" spans="1:14">
@@ -9829,10 +9829,10 @@
         <v>192</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I177" s="1" t="s">
         <v>273</v>
@@ -9876,7 +9876,7 @@
         <v>253</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I178" s="1" t="s">
         <v>277</v>
@@ -9894,7 +9894,7 @@
         <v>479</v>
       </c>
       <c r="N178" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="179" spans="1:14">
@@ -9917,10 +9917,10 @@
         <v>192</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I179" s="1" t="s">
         <v>272</v>
@@ -9958,10 +9958,10 @@
         <v>2023</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>259</v>
@@ -9987,13 +9987,13 @@
     </row>
     <row r="181" spans="1:14">
       <c r="A181" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C181" s="2">
-        <v>9521</v>
+        <v>7723</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>181</v>
@@ -10008,36 +10008,36 @@
         <v>256</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K181" s="1" t="s">
         <v>370</v>
       </c>
       <c r="L181" s="1" t="s">
-        <v>455</v>
+        <v>401</v>
       </c>
       <c r="M181" s="1" t="s">
-        <v>525</v>
+        <v>471</v>
       </c>
       <c r="N181" s="1" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
     </row>
     <row r="182" spans="1:14">
       <c r="A182" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C182" s="2">
-        <v>7723</v>
+        <v>9521</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>181</v>
@@ -10052,25 +10052,25 @@
         <v>256</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K182" s="1" t="s">
         <v>371</v>
       </c>
       <c r="L182" s="1" t="s">
-        <v>401</v>
+        <v>455</v>
       </c>
       <c r="M182" s="1" t="s">
-        <v>471</v>
+        <v>525</v>
       </c>
       <c r="N182" s="1" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="183" spans="1:14">
@@ -10213,7 +10213,7 @@
         <v>134</v>
       </c>
       <c r="C186" s="2">
-        <v>7684</v>
+        <v>9521</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>181</v>
@@ -10246,7 +10246,7 @@
         <v>527</v>
       </c>
       <c r="N186" s="1" t="s">
-        <v>601</v>
+        <v>554</v>
       </c>
     </row>
     <row r="187" spans="1:14">
@@ -10257,7 +10257,7 @@
         <v>134</v>
       </c>
       <c r="C187" s="2">
-        <v>9521</v>
+        <v>7684</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>181</v>
@@ -10290,7 +10290,7 @@
         <v>527</v>
       </c>
       <c r="N187" s="1" t="s">
-        <v>553</v>
+        <v>601</v>
       </c>
     </row>
     <row r="188" spans="1:14">
@@ -10360,7 +10360,7 @@
         <v>250</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I189" s="1" t="s">
         <v>278</v>
@@ -10658,13 +10658,13 @@
         <v>2023</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G196" s="1" t="s">
         <v>239</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I196" s="1" t="s">
         <v>278</v>
@@ -10698,10 +10698,10 @@
         <v>2023</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>261</v>
@@ -10748,7 +10748,7 @@
         <v>210</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I198" s="1" t="s">
         <v>276</v>
@@ -10788,7 +10788,7 @@
         <v>210</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I199" s="1" t="s">
         <v>271</v>
@@ -10828,7 +10828,7 @@
         <v>203</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I200" s="1" t="s">
         <v>270</v>
@@ -10862,13 +10862,13 @@
         <v>2023</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>239</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I201" s="1" t="s">
         <v>278</v>
@@ -10953,7 +10953,7 @@
         <v>192</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H203" s="1" t="s">
         <v>260</v>
@@ -11018,7 +11018,7 @@
         <v>510</v>
       </c>
       <c r="N204" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="205" spans="1:14">
@@ -11038,10 +11038,10 @@
         <v>2023</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>238</v>
+        <v>186</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>238</v>
+        <v>186</v>
       </c>
       <c r="H205" s="1" t="s">
         <v>261</v>
@@ -11082,10 +11082,10 @@
         <v>2023</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>261</v>
@@ -11293,7 +11293,7 @@
         <v>150</v>
       </c>
       <c r="C211" s="2">
-        <v>8200</v>
+        <v>7015</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>181</v>
@@ -11308,7 +11308,7 @@
         <v>239</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I211" s="1" t="s">
         <v>273</v>
@@ -11337,7 +11337,7 @@
         <v>150</v>
       </c>
       <c r="C212" s="2">
-        <v>7015</v>
+        <v>8200</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>181</v>
@@ -11352,7 +11352,7 @@
         <v>239</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I212" s="1" t="s">
         <v>273</v>
@@ -11396,7 +11396,7 @@
         <v>239</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I213" s="1" t="s">
         <v>273</v>
@@ -11742,13 +11742,13 @@
         <v>2023</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G221" s="1" t="s">
         <v>196</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I221" s="1" t="s">
         <v>277</v>
@@ -11786,13 +11786,13 @@
         <v>2023</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G222" s="1" t="s">
         <v>196</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I222" s="1" t="s">
         <v>277</v>
@@ -11880,7 +11880,7 @@
         <v>250</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I224" s="1" t="s">
         <v>277</v>
@@ -11918,13 +11918,13 @@
         <v>2023</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I225" s="1" t="s">
         <v>271</v>
@@ -11942,7 +11942,7 @@
         <v>474</v>
       </c>
       <c r="N225" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="226" spans="1:14">
@@ -11960,7 +11960,7 @@
         <v>2023</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G226" s="1" t="s">
         <v>239</v>
@@ -12022,7 +12022,7 @@
       <c r="L227" s="1"/>
       <c r="M227" s="1"/>
       <c r="N227" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="228" spans="1:14">
@@ -12066,7 +12066,7 @@
         <v>493</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="229" spans="1:14">
@@ -12086,7 +12086,7 @@
         <v>2023</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G229" s="1" t="s">
         <v>196</v>
@@ -12110,7 +12110,7 @@
         <v>512</v>
       </c>
       <c r="N229" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="230" spans="1:14">
@@ -12130,16 +12130,16 @@
         <v>2023</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>17</v>
@@ -12174,16 +12174,16 @@
         <v>2023</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>17</v>
@@ -12218,7 +12218,7 @@
         <v>2023</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G232" s="1" t="s">
         <v>239</v>
@@ -12268,7 +12268,7 @@
         <v>253</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I233" s="1" t="s">
         <v>277</v>
@@ -12308,7 +12308,7 @@
         <v>249</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I234" s="1" t="s">
         <v>277</v>
@@ -12345,7 +12345,7 @@
         <v>192</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H235" s="1" t="s">
         <v>265</v>
@@ -12385,7 +12385,7 @@
         <v>192</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H236" s="1" t="s">
         <v>260</v>
@@ -12422,7 +12422,7 @@
         <v>2023</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G237" s="1" t="s">
         <v>239</v>
@@ -12488,7 +12488,7 @@
         <v>540</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="239" spans="1:14">
@@ -12552,10 +12552,10 @@
         <v>2023</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H240" s="1" t="s">
         <v>261</v>
@@ -12596,10 +12596,10 @@
         <v>2023</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H241" s="1" t="s">
         <v>261</v>
@@ -12684,10 +12684,10 @@
         <v>2023</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="H243" s="1" t="s">
         <v>261</v>
@@ -12728,10 +12728,10 @@
         <v>2023</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="H244" s="1" t="s">
         <v>261</v>
@@ -12816,13 +12816,13 @@
         <v>2023</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G246" s="1" t="s">
         <v>239</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I246" s="1" t="s">
         <v>273</v>
@@ -12866,7 +12866,7 @@
         <v>249</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I247" s="1" t="s">
         <v>277</v>
@@ -12906,7 +12906,7 @@
         <v>255</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I248" s="1" t="s">
         <v>273</v>
@@ -12950,7 +12950,7 @@
         <v>250</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>273</v>
@@ -12988,13 +12988,13 @@
         <v>2023</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G250" s="1" t="s">
         <v>239</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I250" s="1" t="s">
         <v>276</v>
@@ -13038,7 +13038,7 @@
         <v>253</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I251" s="1" t="s">
         <v>273</v>
@@ -13076,7 +13076,7 @@
         <v>2023</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G252" s="1" t="s">
         <v>239</v>
@@ -13118,7 +13118,7 @@
         <v>2023</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G253" s="1" t="s">
         <v>239</v>
@@ -13160,10 +13160,10 @@
         <v>2023</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H254" s="1" t="s">
         <v>259</v>
@@ -13204,16 +13204,16 @@
         <v>2023</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G255" s="1" t="s">
         <v>196</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>17</v>
@@ -13248,16 +13248,16 @@
         <v>2023</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G256" s="1" t="s">
         <v>196</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>17</v>
@@ -13295,7 +13295,7 @@
         <v>192</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H257" s="1" t="s">
         <v>259</v>
@@ -13338,7 +13338,7 @@
         <v>250</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I258" s="1" t="s">
         <v>277</v>
@@ -13372,13 +13372,13 @@
         <v>2023</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G259" s="1" t="s">
         <v>196</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I259" s="1" t="s">
         <v>277</v>
